--- a/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
@@ -418,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9777187802108882</v>
+        <v>0.9777187802108874</v>
       </c>
       <c r="D2">
-        <v>0.9997276014704187</v>
+        <v>0.9997276014704177</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9533508841435593</v>
+        <v>0.9533508841435587</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.034733636902219</v>
       </c>
       <c r="J2">
-        <v>1.000586974077104</v>
+        <v>1.000586974077103</v>
       </c>
       <c r="K2">
-        <v>1.011190732541956</v>
+        <v>1.011190732541955</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9655007834149522</v>
+        <v>0.9655007834149515</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9874624288386751</v>
+        <v>0.9874624288386752</v>
       </c>
       <c r="D3">
         <v>1.007044677960095</v>
@@ -468,7 +468,7 @@
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9661605949874715</v>
+        <v>0.9661605949874718</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9772455845906944</v>
+        <v>0.9772455845906945</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9934887695341813</v>
+        <v>0.99348876953418</v>
       </c>
       <c r="D4">
-        <v>1.011571374948765</v>
+        <v>1.011571374948764</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9740720806600168</v>
+        <v>0.9740720806600153</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040449580768047</v>
+        <v>1.040449580768046</v>
       </c>
       <c r="J4">
-        <v>1.013060512619367</v>
+        <v>1.013060512619365</v>
       </c>
       <c r="K4">
-        <v>1.021532121247155</v>
+        <v>1.021532121247154</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9844938444135927</v>
+        <v>0.9844938444135911</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9959610046690721</v>
+        <v>0.9959610046690723</v>
       </c>
       <c r="D5">
         <v>1.013428502414224</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>0.9773157490028624</v>
+        <v>0.9773157490028627</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.023146908958918</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>0.9874641937354064</v>
+        <v>0.9874641937354068</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9963726569804211</v>
+        <v>0.9963726569804193</v>
       </c>
       <c r="D6">
-        <v>1.01373773433318</v>
+        <v>1.013737734333178</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>0.9778557594839759</v>
+        <v>0.977855759483974</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.04148339323538</v>
       </c>
       <c r="J6">
-        <v>1.015334933976002</v>
+        <v>1.015334933976001</v>
       </c>
       <c r="K6">
-        <v>1.02341559976004</v>
+        <v>1.023415599760039</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>0.9879586173115041</v>
+        <v>0.9879586173115024</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9935220376601563</v>
+        <v>0.9935220376601541</v>
       </c>
       <c r="D7">
-        <v>1.011596365565175</v>
+        <v>1.011596365565173</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>0.9741157364502807</v>
+        <v>0.9741157364502783</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.040461528641252</v>
       </c>
       <c r="J7">
-        <v>1.013086762636354</v>
+        <v>1.013086762636353</v>
       </c>
       <c r="K7">
-        <v>1.021553863583131</v>
+        <v>1.021553863583129</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>0.9845338273152469</v>
+        <v>0.9845338273152447</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9810728578689127</v>
+        <v>0.9810728578689106</v>
       </c>
       <c r="D8">
-        <v>1.002246010769749</v>
+        <v>1.002246010769747</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9577632937689023</v>
+        <v>0.9577632937688998</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.035957532099569</v>
       </c>
       <c r="J8">
-        <v>1.003244714443039</v>
+        <v>1.003244714443037</v>
       </c>
       <c r="K8">
-        <v>1.013395644123344</v>
+        <v>1.013395644123342</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9695475034527318</v>
+        <v>0.9695475034527293</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9567111056467791</v>
+        <v>0.9567111056467799</v>
       </c>
       <c r="D9">
-        <v>0.983968018641588</v>
+        <v>0.9839680186415882</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9256238083689615</v>
+        <v>0.9256238083689622</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026984731212471</v>
+        <v>1.026984731212472</v>
       </c>
       <c r="J9">
-        <v>0.9838908998164458</v>
+        <v>0.9838908998164463</v>
       </c>
       <c r="K9">
-        <v>0.9973266716244908</v>
+        <v>0.997326671624491</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9400510345536764</v>
+        <v>0.9400510345536772</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.938327737135043</v>
+        <v>0.9383277371350419</v>
       </c>
       <c r="D10">
-        <v>0.9702061470932248</v>
+        <v>0.9702061470932241</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.9361465105547164</v>
       </c>
       <c r="F10">
-        <v>0.9011893855190356</v>
+        <v>0.9011893855190343</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.020108979549814</v>
       </c>
       <c r="J10">
-        <v>0.9692215256902937</v>
+        <v>0.9692215256902929</v>
       </c>
       <c r="K10">
-        <v>0.9851350139490561</v>
+        <v>0.9851350139490553</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9517730114689266</v>
       </c>
       <c r="M10">
-        <v>0.9176055419767998</v>
+        <v>0.9176055419767987</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9297020259118429</v>
+        <v>0.9297020259118415</v>
       </c>
       <c r="D11">
-        <v>0.9637611467714152</v>
+        <v>0.9637611467714142</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.8896534078710706</v>
+        <v>0.8896534078710694</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.016859142964677</v>
       </c>
       <c r="J11">
-        <v>0.9623227773889429</v>
+        <v>0.9623227773889415</v>
       </c>
       <c r="K11">
-        <v>0.9794004369901969</v>
+        <v>0.9794004369901956</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>0.9070065732288111</v>
+        <v>0.9070065732288096</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9263799791962837</v>
+        <v>0.9263799791962851</v>
       </c>
       <c r="D12">
-        <v>0.9612813300976493</v>
+        <v>0.9612813300976506</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.8851965853501909</v>
+        <v>0.8851965853501924</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015604111062747</v>
+        <v>1.015604111062748</v>
       </c>
       <c r="J12">
-        <v>0.9596634454846776</v>
+        <v>0.959663445484679</v>
       </c>
       <c r="K12">
-        <v>0.9771899123744983</v>
+        <v>0.9771899123744996</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>0.9029118005461327</v>
+        <v>0.9029118005461343</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9270982593113289</v>
+        <v>0.9270982593113285</v>
       </c>
       <c r="D13">
-        <v>0.9618173903886661</v>
+        <v>0.9618173903886662</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.9318723593368228</v>
       </c>
       <c r="F13">
-        <v>0.8861609125517965</v>
+        <v>0.8861609125517961</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>1.01587562027436</v>
       </c>
       <c r="J13">
-        <v>0.9602385446800074</v>
+        <v>0.9602385446800069</v>
       </c>
       <c r="K13">
-        <v>0.9776679482106004</v>
+        <v>0.9776679482106003</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
         <v>0.9037977819125207</v>
@@ -877,16 +877,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9294299560719758</v>
+        <v>0.9294299560719762</v>
       </c>
       <c r="D14">
-        <v>0.9635580030114589</v>
+        <v>0.9635580030114594</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.8892887049776999</v>
+        <v>0.8892887049777005</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.0167564259322</v>
       </c>
       <c r="J14">
-        <v>0.9621050313416031</v>
+        <v>0.9621050313416033</v>
       </c>
       <c r="K14">
-        <v>0.9792194371076819</v>
+        <v>0.9792194371076824</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764513</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.906671493695456</v>
+        <v>0.9066714936954564</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.930850318239012</v>
+        <v>0.9308503182390119</v>
       </c>
       <c r="D15">
-        <v>0.9646186299565019</v>
+        <v>0.9646186299565016</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.8911920813476755</v>
+        <v>0.8911920813476758</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017292531575377</v>
+        <v>1.017292531575376</v>
       </c>
       <c r="J15">
-        <v>0.963241694903593</v>
+        <v>0.9632416949035929</v>
       </c>
       <c r="K15">
-        <v>0.9801642837685827</v>
+        <v>0.9801642837685823</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9084202705255727</v>
+        <v>0.9084202705255732</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9388847411951925</v>
+        <v>0.9388847411951933</v>
       </c>
       <c r="D16">
-        <v>0.9706226226375144</v>
+        <v>0.970622622637515</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9019326238902551</v>
+        <v>0.9019326238902559</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.020318366756336</v>
       </c>
       <c r="J16">
-        <v>0.9696666891635649</v>
+        <v>0.9696666891635654</v>
       </c>
       <c r="K16">
-        <v>0.9855050496764021</v>
+        <v>0.9855050496764023</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9182883963835561</v>
+        <v>0.918288396383557</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9437350252262071</v>
+        <v>0.9437350252262086</v>
       </c>
       <c r="D17">
-        <v>0.9742506160522868</v>
+        <v>0.9742506160522879</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9083964652079288</v>
+        <v>0.9083964652079298</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022139069959764</v>
+        <v>1.022139069959765</v>
       </c>
       <c r="J17">
-        <v>0.9735413503591944</v>
+        <v>0.9735413503591958</v>
       </c>
       <c r="K17">
-        <v>0.988725708139705</v>
+        <v>0.9887257081397061</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9242268951483451</v>
+        <v>0.9242268951483462</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9465013340464754</v>
+        <v>0.9465013340464743</v>
       </c>
       <c r="D18">
-        <v>0.976320891301385</v>
+        <v>0.9763208913013841</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9120767694150144</v>
+        <v>0.9120767694150136</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.023175307230156</v>
       </c>
       <c r="J18">
-        <v>0.9757497850493366</v>
+        <v>0.9757497850493357</v>
       </c>
       <c r="K18">
-        <v>0.9905612705696408</v>
+        <v>0.9905612705696398</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>0.9276078767720394</v>
+        <v>0.9276078767720386</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C19">
-        <v>0.9474343977196046</v>
+        <v>0.9474343977196047</v>
       </c>
       <c r="D19">
         <v>0.9770193568216831</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9397594814680091</v>
       </c>
       <c r="F19">
-        <v>0.9133171340601692</v>
+        <v>0.9133171340601695</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023524451622567</v>
+        <v>1.023524451622566</v>
       </c>
       <c r="J19">
-        <v>0.9764944370636298</v>
+        <v>0.9764944370636297</v>
       </c>
       <c r="K19">
         <v>0.9911801715282881</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9546352493812711</v>
       </c>
       <c r="M19">
-        <v>0.9287473175138851</v>
+        <v>0.9287473175138854</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9432212444040662</v>
+        <v>0.9432212444040659</v>
       </c>
       <c r="D20">
-        <v>0.9738661932873869</v>
+        <v>0.9738661932873866</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9077124383650599</v>
+        <v>0.9077124383650595</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.021946433240828</v>
       </c>
       <c r="J20">
-        <v>0.9731310654872872</v>
+        <v>0.9731310654872869</v>
       </c>
       <c r="K20">
-        <v>0.9883846854817657</v>
+        <v>0.9883846854817655</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9235984817220008</v>
+        <v>0.9235984817220003</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9287467598139535</v>
+        <v>0.9287467598139552</v>
       </c>
       <c r="D21">
-        <v>0.9630479273093715</v>
+        <v>0.9630479273093729</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.8883726614017297</v>
+        <v>0.8883726614017319</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016498438459584</v>
+        <v>1.016498438459585</v>
       </c>
       <c r="J21">
-        <v>0.9615582093738374</v>
+        <v>0.9615582093738392</v>
       </c>
       <c r="K21">
-        <v>0.9787648966024908</v>
+        <v>0.9787648966024923</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>0.9058298587655997</v>
+        <v>0.905829858765602</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9189497859001726</v>
+        <v>0.918949785900172</v>
       </c>
       <c r="D22">
-        <v>0.9557399917614684</v>
+        <v>0.9557399917614682</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8751977514603152</v>
+        <v>0.8751977514603143</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.012790898127342</v>
       </c>
       <c r="J22">
-        <v>0.9537109732730622</v>
+        <v>0.9537109732730615</v>
       </c>
       <c r="K22">
-        <v>0.9722423708087125</v>
+        <v>0.9722423708087119</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>0.8937258014682328</v>
+        <v>0.8937258014682319</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9242168441396427</v>
+        <v>0.9242168441396423</v>
       </c>
       <c r="D23">
-        <v>0.959667352999038</v>
+        <v>0.9596673529990379</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8822901112024852</v>
+        <v>0.8822901112024851</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.014785959734254</v>
       </c>
       <c r="J23">
-        <v>0.9579311506208537</v>
+        <v>0.9579311506208533</v>
       </c>
       <c r="K23">
-        <v>0.9757500131330588</v>
+        <v>0.9757500131330584</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9002415000338858</v>
+        <v>0.900241500033886</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.943453592539683</v>
+        <v>0.9434535925396814</v>
       </c>
       <c r="D24">
-        <v>0.9740400382144419</v>
+        <v>0.9740400382144404</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9080217965659276</v>
+        <v>0.9080217965659256</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022033556547716</v>
+        <v>1.022033556547714</v>
       </c>
       <c r="J24">
-        <v>0.9733166139236221</v>
+        <v>0.9733166139236206</v>
       </c>
       <c r="K24">
-        <v>0.9885389109322823</v>
+        <v>0.9885389109322809</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.953371659644245</v>
       </c>
       <c r="M24">
-        <v>0.9238826888583851</v>
+        <v>0.9238826888583833</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9633427725652837</v>
+        <v>0.9633427725652826</v>
       </c>
       <c r="D25">
-        <v>0.9889398303181802</v>
+        <v>0.9889398303181793</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801717732</v>
       </c>
       <c r="F25">
-        <v>0.9343958540771448</v>
+        <v>0.9343958540771433</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.029445028291861</v>
       </c>
       <c r="J25">
-        <v>0.9891700672828971</v>
+        <v>0.989170067282896</v>
       </c>
       <c r="K25">
-        <v>1.001712302431838</v>
+        <v>1.001712302431837</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.959875449400561</v>
       </c>
       <c r="M25">
-        <v>0.9481057927234861</v>
+        <v>0.9481057927234848</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
@@ -418,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9777187802108874</v>
+        <v>0.9777187802108882</v>
       </c>
       <c r="D2">
-        <v>0.9997276014704177</v>
+        <v>0.9997276014704187</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9533508841435587</v>
+        <v>0.9533508841435593</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.034733636902219</v>
       </c>
       <c r="J2">
-        <v>1.000586974077103</v>
+        <v>1.000586974077104</v>
       </c>
       <c r="K2">
-        <v>1.011190732541955</v>
+        <v>1.011190732541956</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9655007834149515</v>
+        <v>0.9655007834149522</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9874624288386752</v>
+        <v>0.9874624288386751</v>
       </c>
       <c r="D3">
         <v>1.007044677960095</v>
@@ -468,7 +468,7 @@
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9661605949874718</v>
+        <v>0.9661605949874715</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9772455845906945</v>
+        <v>0.9772455845906944</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.99348876953418</v>
+        <v>0.9934887695341813</v>
       </c>
       <c r="D4">
-        <v>1.011571374948764</v>
+        <v>1.011571374948765</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9740720806600153</v>
+        <v>0.9740720806600168</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040449580768046</v>
+        <v>1.040449580768047</v>
       </c>
       <c r="J4">
-        <v>1.013060512619365</v>
+        <v>1.013060512619367</v>
       </c>
       <c r="K4">
-        <v>1.021532121247154</v>
+        <v>1.021532121247155</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9844938444135911</v>
+        <v>0.9844938444135927</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9959610046690723</v>
+        <v>0.9959610046690721</v>
       </c>
       <c r="D5">
         <v>1.013428502414224</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9773157490028627</v>
+        <v>0.9773157490028624</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.023146908958918</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9874641937354068</v>
+        <v>0.9874641937354064</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9963726569804193</v>
+        <v>0.9963726569804211</v>
       </c>
       <c r="D6">
-        <v>1.013737734333178</v>
+        <v>1.01373773433318</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.977855759483974</v>
+        <v>0.9778557594839759</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.04148339323538</v>
       </c>
       <c r="J6">
-        <v>1.015334933976001</v>
+        <v>1.015334933976002</v>
       </c>
       <c r="K6">
-        <v>1.023415599760039</v>
+        <v>1.02341559976004</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9879586173115024</v>
+        <v>0.9879586173115041</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9935220376601541</v>
+        <v>0.9935220376601563</v>
       </c>
       <c r="D7">
-        <v>1.011596365565173</v>
+        <v>1.011596365565175</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9741157364502783</v>
+        <v>0.9741157364502807</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.040461528641252</v>
       </c>
       <c r="J7">
-        <v>1.013086762636353</v>
+        <v>1.013086762636354</v>
       </c>
       <c r="K7">
-        <v>1.021553863583129</v>
+        <v>1.021553863583131</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9845338273152447</v>
+        <v>0.9845338273152469</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9810728578689106</v>
+        <v>0.9810728578689127</v>
       </c>
       <c r="D8">
-        <v>1.002246010769747</v>
+        <v>1.002246010769749</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9577632937688998</v>
+        <v>0.9577632937689023</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.035957532099569</v>
       </c>
       <c r="J8">
-        <v>1.003244714443037</v>
+        <v>1.003244714443039</v>
       </c>
       <c r="K8">
-        <v>1.013395644123342</v>
+        <v>1.013395644123344</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9695475034527293</v>
+        <v>0.9695475034527318</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9567111056467799</v>
+        <v>0.9567111056467791</v>
       </c>
       <c r="D9">
-        <v>0.9839680186415882</v>
+        <v>0.983968018641588</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9256238083689622</v>
+        <v>0.9256238083689615</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026984731212472</v>
+        <v>1.026984731212471</v>
       </c>
       <c r="J9">
-        <v>0.9838908998164463</v>
+        <v>0.9838908998164458</v>
       </c>
       <c r="K9">
-        <v>0.997326671624491</v>
+        <v>0.9973266716244908</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9400510345536772</v>
+        <v>0.9400510345536764</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9383277371350419</v>
+        <v>0.938327737135043</v>
       </c>
       <c r="D10">
-        <v>0.9702061470932241</v>
+        <v>0.9702061470932248</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547164</v>
+        <v>0.9361465105547168</v>
       </c>
       <c r="F10">
-        <v>0.9011893855190343</v>
+        <v>0.9011893855190356</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.020108979549814</v>
       </c>
       <c r="J10">
-        <v>0.9692215256902929</v>
+        <v>0.9692215256902937</v>
       </c>
       <c r="K10">
-        <v>0.9851350139490553</v>
+        <v>0.9851350139490561</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689266</v>
+        <v>0.9517730114689269</v>
       </c>
       <c r="M10">
-        <v>0.9176055419767987</v>
+        <v>0.9176055419767998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9297020259118415</v>
+        <v>0.9297020259118429</v>
       </c>
       <c r="D11">
-        <v>0.9637611467714142</v>
+        <v>0.9637611467714152</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.8896534078710694</v>
+        <v>0.8896534078710706</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.016859142964677</v>
       </c>
       <c r="J11">
-        <v>0.9623227773889415</v>
+        <v>0.9623227773889429</v>
       </c>
       <c r="K11">
-        <v>0.9794004369901956</v>
+        <v>0.9794004369901969</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416574</v>
       </c>
       <c r="M11">
-        <v>0.9070065732288096</v>
+        <v>0.9070065732288111</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9263799791962851</v>
+        <v>0.9263799791962837</v>
       </c>
       <c r="D12">
-        <v>0.9612813300976506</v>
+        <v>0.9612813300976493</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.8851965853501924</v>
+        <v>0.8851965853501909</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015604111062748</v>
+        <v>1.015604111062747</v>
       </c>
       <c r="J12">
-        <v>0.959663445484679</v>
+        <v>0.9596634454846776</v>
       </c>
       <c r="K12">
-        <v>0.9771899123744996</v>
+        <v>0.9771899123744983</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9029118005461343</v>
+        <v>0.9029118005461327</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9270982593113285</v>
+        <v>0.9270982593113289</v>
       </c>
       <c r="D13">
-        <v>0.9618173903886662</v>
+        <v>0.9618173903886661</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368228</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.8861609125517961</v>
+        <v>0.8861609125517965</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>1.01587562027436</v>
       </c>
       <c r="J13">
-        <v>0.9602385446800069</v>
+        <v>0.9602385446800074</v>
       </c>
       <c r="K13">
-        <v>0.9776679482106003</v>
+        <v>0.9776679482106004</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
         <v>0.9037977819125207</v>
@@ -877,16 +877,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9294299560719762</v>
+        <v>0.9294299560719758</v>
       </c>
       <c r="D14">
-        <v>0.9635580030114594</v>
+        <v>0.9635580030114589</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.8892887049777005</v>
+        <v>0.8892887049776999</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.0167564259322</v>
       </c>
       <c r="J14">
-        <v>0.9621050313416033</v>
+        <v>0.9621050313416031</v>
       </c>
       <c r="K14">
-        <v>0.9792194371076824</v>
+        <v>0.9792194371076819</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764513</v>
       </c>
       <c r="M14">
-        <v>0.9066714936954564</v>
+        <v>0.906671493695456</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9308503182390119</v>
+        <v>0.930850318239012</v>
       </c>
       <c r="D15">
-        <v>0.9646186299565016</v>
+        <v>0.9646186299565019</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.8911920813476758</v>
+        <v>0.8911920813476755</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017292531575376</v>
+        <v>1.017292531575377</v>
       </c>
       <c r="J15">
-        <v>0.9632416949035929</v>
+        <v>0.963241694903593</v>
       </c>
       <c r="K15">
-        <v>0.9801642837685823</v>
+        <v>0.9801642837685827</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9084202705255732</v>
+        <v>0.9084202705255727</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9388847411951933</v>
+        <v>0.9388847411951925</v>
       </c>
       <c r="D16">
-        <v>0.970622622637515</v>
+        <v>0.9706226226375144</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9019326238902559</v>
+        <v>0.9019326238902551</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.020318366756336</v>
       </c>
       <c r="J16">
-        <v>0.9696666891635654</v>
+        <v>0.9696666891635649</v>
       </c>
       <c r="K16">
-        <v>0.9855050496764023</v>
+        <v>0.9855050496764021</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.918288396383557</v>
+        <v>0.9182883963835561</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9437350252262086</v>
+        <v>0.9437350252262071</v>
       </c>
       <c r="D17">
-        <v>0.9742506160522879</v>
+        <v>0.9742506160522868</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9083964652079298</v>
+        <v>0.9083964652079288</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022139069959765</v>
+        <v>1.022139069959764</v>
       </c>
       <c r="J17">
-        <v>0.9735413503591958</v>
+        <v>0.9735413503591944</v>
       </c>
       <c r="K17">
-        <v>0.9887257081397061</v>
+        <v>0.988725708139705</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9242268951483462</v>
+        <v>0.9242268951483451</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9465013340464743</v>
+        <v>0.9465013340464754</v>
       </c>
       <c r="D18">
-        <v>0.9763208913013841</v>
+        <v>0.976320891301385</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9120767694150136</v>
+        <v>0.9120767694150144</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.023175307230156</v>
       </c>
       <c r="J18">
-        <v>0.9757497850493357</v>
+        <v>0.9757497850493366</v>
       </c>
       <c r="K18">
-        <v>0.9905612705696398</v>
+        <v>0.9905612705696408</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9276078767720386</v>
+        <v>0.9276078767720394</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9474343977196047</v>
+        <v>0.9474343977196046</v>
       </c>
       <c r="D19">
         <v>0.9770193568216831</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680091</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9133171340601695</v>
+        <v>0.9133171340601692</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023524451622566</v>
+        <v>1.023524451622567</v>
       </c>
       <c r="J19">
-        <v>0.9764944370636297</v>
+        <v>0.9764944370636298</v>
       </c>
       <c r="K19">
         <v>0.9911801715282881</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812711</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9287473175138854</v>
+        <v>0.9287473175138851</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9432212444040659</v>
+        <v>0.9432212444040662</v>
       </c>
       <c r="D20">
-        <v>0.9738661932873866</v>
+        <v>0.9738661932873869</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9077124383650595</v>
+        <v>0.9077124383650599</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.021946433240828</v>
       </c>
       <c r="J20">
-        <v>0.9731310654872869</v>
+        <v>0.9731310654872872</v>
       </c>
       <c r="K20">
-        <v>0.9883846854817655</v>
+        <v>0.9883846854817657</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9235984817220003</v>
+        <v>0.9235984817220008</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9287467598139552</v>
+        <v>0.9287467598139535</v>
       </c>
       <c r="D21">
-        <v>0.9630479273093729</v>
+        <v>0.9630479273093715</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.8883726614017319</v>
+        <v>0.8883726614017297</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016498438459585</v>
+        <v>1.016498438459584</v>
       </c>
       <c r="J21">
-        <v>0.9615582093738392</v>
+        <v>0.9615582093738374</v>
       </c>
       <c r="K21">
-        <v>0.9787648966024923</v>
+        <v>0.9787648966024908</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.905829858765602</v>
+        <v>0.9058298587655997</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.918949785900172</v>
+        <v>0.9189497859001726</v>
       </c>
       <c r="D22">
-        <v>0.9557399917614682</v>
+        <v>0.9557399917614684</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8751977514603143</v>
+        <v>0.8751977514603152</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.012790898127342</v>
       </c>
       <c r="J22">
-        <v>0.9537109732730615</v>
+        <v>0.9537109732730622</v>
       </c>
       <c r="K22">
-        <v>0.9722423708087119</v>
+        <v>0.9722423708087125</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.8937258014682319</v>
+        <v>0.8937258014682328</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9242168441396423</v>
+        <v>0.9242168441396427</v>
       </c>
       <c r="D23">
-        <v>0.9596673529990379</v>
+        <v>0.959667352999038</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8822901112024851</v>
+        <v>0.8822901112024852</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.014785959734254</v>
       </c>
       <c r="J23">
-        <v>0.9579311506208533</v>
+        <v>0.9579311506208537</v>
       </c>
       <c r="K23">
-        <v>0.9757500131330584</v>
+        <v>0.9757500131330588</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.900241500033886</v>
+        <v>0.9002415000338858</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9434535925396814</v>
+        <v>0.943453592539683</v>
       </c>
       <c r="D24">
-        <v>0.9740400382144404</v>
+        <v>0.9740400382144419</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9080217965659256</v>
+        <v>0.9080217965659276</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022033556547714</v>
+        <v>1.022033556547716</v>
       </c>
       <c r="J24">
-        <v>0.9733166139236206</v>
+        <v>0.9733166139236221</v>
       </c>
       <c r="K24">
-        <v>0.9885389109322809</v>
+        <v>0.9885389109322823</v>
       </c>
       <c r="L24">
-        <v>0.953371659644245</v>
+        <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9238826888583833</v>
+        <v>0.9238826888583851</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9633427725652826</v>
+        <v>0.9633427725652837</v>
       </c>
       <c r="D25">
-        <v>0.9889398303181793</v>
+        <v>0.9889398303181802</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9343958540771433</v>
+        <v>0.9343958540771448</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.029445028291861</v>
       </c>
       <c r="J25">
-        <v>0.989170067282896</v>
+        <v>0.9891700672828971</v>
       </c>
       <c r="K25">
-        <v>1.001712302431837</v>
+        <v>1.001712302431838</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9481057927234848</v>
+        <v>0.9481057927234861</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9777187802108882</v>
+        <v>0.9807509858029535</v>
       </c>
       <c r="D2">
-        <v>0.9997276014704187</v>
+        <v>1.002055777230537</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9533508841435593</v>
+        <v>0.9565542634152915</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034733636902219</v>
+        <v>1.036049713624966</v>
       </c>
       <c r="J2">
-        <v>1.000586974077104</v>
+        <v>1.003523080281297</v>
       </c>
       <c r="K2">
-        <v>1.011190732541956</v>
+        <v>1.013486545918723</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9655007834149522</v>
+        <v>0.9686539891451106</v>
+      </c>
+      <c r="N2">
+        <v>1.004948198161003</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9874624288386751</v>
+        <v>0.9904575443784722</v>
       </c>
       <c r="D3">
-        <v>1.007044677960095</v>
+        <v>1.009348100566596</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9661605949874715</v>
+        <v>0.9693051299972965</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038277226421281</v>
+        <v>1.039581159522073</v>
       </c>
       <c r="J3">
-        <v>1.008300815617009</v>
+        <v>1.011211770416438</v>
       </c>
       <c r="K3">
-        <v>1.017588207412556</v>
+        <v>1.019862751807211</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9772455845906944</v>
+        <v>0.9803464301533074</v>
+      </c>
+      <c r="N3">
+        <v>1.01264780711804</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9934887695341813</v>
+        <v>0.9964629408579208</v>
       </c>
       <c r="D4">
-        <v>1.011571374948765</v>
+        <v>1.013860912639042</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9740720806600168</v>
+        <v>0.9771832539125183</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040449580768047</v>
+        <v>1.041746812760759</v>
       </c>
       <c r="J4">
-        <v>1.013060512619367</v>
+        <v>1.015957559779867</v>
       </c>
       <c r="K4">
-        <v>1.021532121247155</v>
+        <v>1.023794878218232</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9844938444135927</v>
+        <v>0.987565087430154</v>
+      </c>
+      <c r="N4">
+        <v>1.017400336046715</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9959610046690721</v>
+        <v>0.9989270059087898</v>
       </c>
       <c r="D5">
-        <v>1.013428502414224</v>
+        <v>1.015712646499552</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9773157490028624</v>
+        <v>0.980413869523605</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041336063346579</v>
+        <v>1.042630719273367</v>
       </c>
       <c r="J5">
-        <v>1.015010415100655</v>
+        <v>1.017902106347597</v>
       </c>
       <c r="K5">
-        <v>1.023146908958918</v>
+        <v>1.025405121112608</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9874641937354064</v>
+        <v>0.9905238752778105</v>
+      </c>
+      <c r="N5">
+        <v>1.019347644093614</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9963726569804211</v>
+        <v>0.9993373211950951</v>
       </c>
       <c r="D6">
-        <v>1.01373773433318</v>
+        <v>1.016020997121909</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9778557594839759</v>
+        <v>0.9809517414675138</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04148339323538</v>
+        <v>1.042777629855506</v>
       </c>
       <c r="J6">
-        <v>1.015334933976002</v>
+        <v>1.0182257527991</v>
       </c>
       <c r="K6">
-        <v>1.02341559976004</v>
+        <v>1.025673071315489</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9879586173115041</v>
+        <v>0.9910164058677876</v>
+      </c>
+      <c r="N6">
+        <v>1.019671750160201</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9935220376601563</v>
+        <v>0.996496097433905</v>
       </c>
       <c r="D7">
-        <v>1.011596365565175</v>
+        <v>1.013885829521278</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9741157364502807</v>
+        <v>0.9772267316529496</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040461528641252</v>
+        <v>1.041758725307248</v>
       </c>
       <c r="J7">
-        <v>1.013086762636354</v>
+        <v>1.015983736391144</v>
       </c>
       <c r="K7">
-        <v>1.021553863583131</v>
+        <v>1.023816558285784</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9845338273152469</v>
+        <v>0.9876049125404484</v>
+      </c>
+      <c r="N7">
+        <v>1.017426549831783</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9810728578689127</v>
+        <v>0.9840918313365088</v>
       </c>
       <c r="D8">
-        <v>1.002246010769749</v>
+        <v>1.004565334898308</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9577632937689023</v>
+        <v>0.9609457053253232</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035957532099569</v>
+        <v>1.037269241335596</v>
       </c>
       <c r="J8">
-        <v>1.003244714443039</v>
+        <v>1.006171779677107</v>
       </c>
       <c r="K8">
-        <v>1.013395644123344</v>
+        <v>1.01568381891217</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9695475034527318</v>
+        <v>0.9726820335195207</v>
+      </c>
+      <c r="N8">
+        <v>1.007600659013764</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9567111056467791</v>
+        <v>0.9598383353909258</v>
       </c>
       <c r="D9">
-        <v>0.983968018641588</v>
+        <v>0.9863602398527131</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9256238083689615</v>
+        <v>0.9289774874323683</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026984731212471</v>
+        <v>1.028332994168145</v>
       </c>
       <c r="J9">
-        <v>0.9838908998164458</v>
+        <v>0.9868936168661192</v>
       </c>
       <c r="K9">
-        <v>0.9973266716244908</v>
+        <v>0.9996785582169772</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9400510345536764</v>
+        <v>0.9433385175730107</v>
+      </c>
+      <c r="N9">
+        <v>0.9882951190003491</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.938327737135043</v>
+        <v>0.9415579857195595</v>
       </c>
       <c r="D10">
-        <v>0.9702061470932248</v>
+        <v>0.9726684093680412</v>
       </c>
       <c r="E10">
         <v>0.9361465105547168</v>
       </c>
       <c r="F10">
-        <v>0.9011893855190356</v>
+        <v>0.9047064133910441</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020108979549814</v>
+        <v>1.021493197043333</v>
       </c>
       <c r="J10">
-        <v>0.9692215256902937</v>
+        <v>0.972298814678658</v>
       </c>
       <c r="K10">
-        <v>0.9851350139490561</v>
+        <v>0.9875493243089578</v>
       </c>
       <c r="L10">
         <v>0.9517730114689269</v>
       </c>
       <c r="M10">
-        <v>0.9176055419767998</v>
+        <v>0.9210394226921845</v>
+      </c>
+      <c r="N10">
+        <v>0.9736795905197345</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9297020259118429</v>
+        <v>0.93298825290572</v>
       </c>
       <c r="D11">
-        <v>0.9637611467714152</v>
+        <v>0.9662616349389763</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.8896534078710706</v>
+        <v>0.8932596405035235</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016859142964677</v>
+        <v>1.018263193495951</v>
       </c>
       <c r="J11">
-        <v>0.9623227773889429</v>
+        <v>0.9654413095768325</v>
       </c>
       <c r="K11">
-        <v>0.9794004369901969</v>
+        <v>0.9818491442870663</v>
       </c>
       <c r="L11">
         <v>0.9491556125416574</v>
       </c>
       <c r="M11">
-        <v>0.9070065732288111</v>
+        <v>0.9105204993587709</v>
+      </c>
+      <c r="N11">
+        <v>0.9668123469740975</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9263799791962837</v>
+        <v>0.9296892392536051</v>
       </c>
       <c r="D12">
-        <v>0.9612813300976493</v>
+        <v>0.9637975729954141</v>
       </c>
       <c r="E12">
         <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.8851965853501909</v>
+        <v>0.8888396342173364</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015604111062747</v>
+        <v>1.017016368722947</v>
       </c>
       <c r="J12">
-        <v>0.9596634454846776</v>
+        <v>0.9627990678559806</v>
       </c>
       <c r="K12">
-        <v>0.9771899123744983</v>
+        <v>0.9796528499082109</v>
       </c>
       <c r="L12">
         <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9029118005461327</v>
+        <v>0.9064587737621128</v>
+      </c>
+      <c r="N12">
+        <v>0.9641663529669329</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9270982593113289</v>
+        <v>0.9304024663228723</v>
       </c>
       <c r="D13">
-        <v>0.9618173903886661</v>
+        <v>0.9643301757870508</v>
       </c>
       <c r="E13">
         <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.8861609125517965</v>
+        <v>0.8897958787206836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01587562027436</v>
+        <v>1.017286075319633</v>
       </c>
       <c r="J13">
-        <v>0.9602385446800074</v>
+        <v>0.9633704122002316</v>
       </c>
       <c r="K13">
-        <v>0.9776679482106004</v>
+        <v>0.980127760340531</v>
       </c>
       <c r="L13">
         <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9037977819125207</v>
+        <v>0.9073374994965103</v>
+      </c>
+      <c r="N13">
+        <v>0.9647385086856868</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9294299560719758</v>
+        <v>0.9327180374120633</v>
       </c>
       <c r="D14">
-        <v>0.9635580030114589</v>
+        <v>0.9660597590363988</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.8892887049776999</v>
+        <v>0.892897899099489</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0167564259322</v>
+        <v>1.018161136270415</v>
       </c>
       <c r="J14">
-        <v>0.9621050313416031</v>
+        <v>0.9652249369820985</v>
       </c>
       <c r="K14">
-        <v>0.9792194371076819</v>
+        <v>0.9816692884947398</v>
       </c>
       <c r="L14">
         <v>0.9490745509764513</v>
       </c>
       <c r="M14">
-        <v>0.906671493695456</v>
+        <v>0.9101880779328909</v>
+      </c>
+      <c r="N14">
+        <v>0.9665956671054609</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.930850318239012</v>
+        <v>0.9341287805190399</v>
       </c>
       <c r="D15">
-        <v>0.9646186299565019</v>
+        <v>0.9671138102533654</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.8911920813476755</v>
+        <v>0.8947859180056877</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017292531575377</v>
+        <v>1.018693821134936</v>
       </c>
       <c r="J15">
-        <v>0.963241694903593</v>
+        <v>0.9663544808146449</v>
       </c>
       <c r="K15">
-        <v>0.9801642837685827</v>
+        <v>0.9826082034743348</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9084202705255727</v>
+        <v>0.9119230709625055</v>
+      </c>
+      <c r="N15">
+        <v>0.9677268150198102</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9388847411951925</v>
+        <v>0.9421115549561603</v>
       </c>
       <c r="D16">
-        <v>0.9706226226375144</v>
+        <v>0.973082542645767</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9019326238902551</v>
+        <v>0.9054441898600984</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020318366756336</v>
+        <v>1.021701373108613</v>
       </c>
       <c r="J16">
-        <v>0.9696666891635649</v>
+        <v>0.9727414621401712</v>
       </c>
       <c r="K16">
-        <v>0.9855050496764021</v>
+        <v>0.9879172589693594</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9182883963835561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9217173776246942</v>
+      </c>
+      <c r="N16">
+        <v>0.9741228665914154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9437350252262071</v>
+        <v>0.9469327995401279</v>
       </c>
       <c r="D17">
-        <v>0.9742506160522868</v>
+        <v>0.97669075063578</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9083964652079288</v>
+        <v>0.9118619027094843</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022139069959764</v>
+        <v>1.023511867158879</v>
       </c>
       <c r="J17">
-        <v>0.9735413503591944</v>
+        <v>0.9765949265853542</v>
       </c>
       <c r="K17">
-        <v>0.988725708139705</v>
+        <v>0.9911202032397338</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9242268951483451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9276145075741807</v>
+      </c>
+      <c r="N17">
+        <v>0.9779818033981094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9465013340464754</v>
+        <v>0.9496832226392102</v>
       </c>
       <c r="D18">
-        <v>0.976320891301385</v>
+        <v>0.9787502164025457</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9120767694150144</v>
+        <v>0.9155170070615183</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023175307230156</v>
+        <v>1.024542544314151</v>
       </c>
       <c r="J18">
-        <v>0.9757497850493366</v>
+        <v>0.978791825672405</v>
       </c>
       <c r="K18">
-        <v>0.9905612705696408</v>
+        <v>0.9929461149765607</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9276078767720394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9309728979417865</v>
+      </c>
+      <c r="N18">
+        <v>0.9801818223338513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9474343977196046</v>
+        <v>0.9506110352790842</v>
       </c>
       <c r="D19">
-        <v>0.9770193568216831</v>
+        <v>0.9794451111863679</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9133171340601692</v>
+        <v>0.9167490467254906</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023524451622567</v>
+        <v>1.024889854955494</v>
       </c>
       <c r="J19">
-        <v>0.9764944370636298</v>
+        <v>0.979532674483004</v>
       </c>
       <c r="K19">
-        <v>0.9911801715282881</v>
+        <v>0.9935618325050704</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9287473175138851</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9321048769779576</v>
+      </c>
+      <c r="N19">
+        <v>0.9809237232347384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9432212444040662</v>
+        <v>0.9464220223243442</v>
       </c>
       <c r="D20">
-        <v>0.9738661932873869</v>
+        <v>0.9763083728349842</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9077124383650599</v>
+        <v>0.9111826431513507</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021946433240828</v>
+        <v>1.023320283764561</v>
       </c>
       <c r="J20">
-        <v>0.9731310654872872</v>
+        <v>0.9761868277255973</v>
       </c>
       <c r="K20">
-        <v>0.9883846854817657</v>
+        <v>0.9907810085608594</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9235984817220008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9269903686590282</v>
+      </c>
+      <c r="N20">
+        <v>0.977573124991162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9287467598139535</v>
+        <v>0.9320395225333805</v>
       </c>
       <c r="D21">
-        <v>0.9630479273093715</v>
+        <v>0.9655528845133406</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.8883726614017297</v>
+        <v>0.8919893338722432</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016498438459584</v>
+        <v>1.017904815250867</v>
       </c>
       <c r="J21">
-        <v>0.9615582093738374</v>
+        <v>0.9646815842907462</v>
       </c>
       <c r="K21">
-        <v>0.9787648966024908</v>
+        <v>0.9812176375314493</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9058298587655997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9093531554115322</v>
+      </c>
+      <c r="N21">
+        <v>0.9660515427909629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9189497859001726</v>
+        <v>0.9223137966458714</v>
       </c>
       <c r="D22">
-        <v>0.9557399917614684</v>
+        <v>0.9582937366780624</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8751977514603152</v>
+        <v>0.8789285978317645</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012790898127342</v>
+        <v>1.014222757255593</v>
       </c>
       <c r="J22">
-        <v>0.9537109732730622</v>
+        <v>0.9568874670949857</v>
       </c>
       <c r="K22">
-        <v>0.9722423708087125</v>
+        <v>0.9747392905669985</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.8937258014682328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8973515992746823</v>
+      </c>
+      <c r="N22">
+        <v>0.9582463570547872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9242168441396427</v>
+        <v>0.9275415708013771</v>
       </c>
       <c r="D23">
-        <v>0.959667352999038</v>
+        <v>0.9621941827560295</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8822901112024852</v>
+        <v>0.8859579209170312</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014785959734254</v>
+        <v>1.016203741989691</v>
       </c>
       <c r="J23">
-        <v>0.9579311506208537</v>
+        <v>0.9610782847801899</v>
       </c>
       <c r="K23">
-        <v>0.9757500131330588</v>
+        <v>0.9782225289330484</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9002415000338858</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.903810701686691</v>
+      </c>
+      <c r="N23">
+        <v>0.9624431261817978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.943453592539683</v>
+        <v>0.9466530100444616</v>
       </c>
       <c r="D24">
-        <v>0.9740400382144419</v>
+        <v>0.9764812914977139</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9080217965659276</v>
+        <v>0.9114898420126714</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022033556547716</v>
+        <v>1.023406929913661</v>
       </c>
       <c r="J24">
-        <v>0.9733166139236221</v>
+        <v>0.976371385867984</v>
       </c>
       <c r="K24">
-        <v>0.9885389109322823</v>
+        <v>0.9909344059440843</v>
       </c>
       <c r="L24">
         <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9238826888583851</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9272726396304876</v>
+      </c>
+      <c r="N24">
+        <v>0.9777579452272797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9633427725652837</v>
+        <v>0.9664376143755936</v>
       </c>
       <c r="D25">
-        <v>0.9889398303181802</v>
+        <v>0.9913101443750769</v>
       </c>
       <c r="E25">
         <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9343958540771448</v>
+        <v>0.9376983136695394</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029445028291861</v>
+        <v>1.030782186039685</v>
       </c>
       <c r="J25">
-        <v>0.9891700672828971</v>
+        <v>0.9921497943737312</v>
       </c>
       <c r="K25">
-        <v>1.001712302431838</v>
+        <v>1.004044873840333</v>
       </c>
       <c r="L25">
         <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9481057927234861</v>
+        <v>0.9513474524343372</v>
+      </c>
+      <c r="N25">
+        <v>0.9935587608829138</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
@@ -417,336 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.004792865276428</v>
+      </c>
+      <c r="D2">
+        <v>1.022323373947656</v>
+      </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
+      <c r="F2">
+        <v>0.981901245150379</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.046210097822223</v>
+      </c>
+      <c r="J2">
+        <v>1.026831161523356</v>
+      </c>
+      <c r="K2">
+        <v>1.033480228113446</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
+      <c r="M2">
+        <v>0.9936186188185112</v>
+      </c>
+      <c r="N2">
+        <v>1.0282893795519</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.00933887585185</v>
+      </c>
+      <c r="D3">
+        <v>1.025758175453589</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>0.9571825583057848</v>
+      </c>
+      <c r="F3">
+        <v>0.9891006990055869</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.047807710650909</v>
+      </c>
+      <c r="J3">
+        <v>1.029578151256455</v>
+      </c>
+      <c r="K3">
+        <v>1.03607175136835</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>0.9683942856474066</v>
+      </c>
+      <c r="M3">
+        <v>0.9998749645240194</v>
+      </c>
+      <c r="N3">
+        <v>1.031040270325504</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.01220979306815</v>
+      </c>
+      <c r="D4">
+        <v>1.027928264394798</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>0.9600238894088612</v>
+      </c>
+      <c r="F4">
+        <v>0.9936378477049241</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.048803782937137</v>
+      </c>
+      <c r="J4">
+        <v>1.031306245162699</v>
+      </c>
+      <c r="K4">
+        <v>1.037700911383512</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>0.9706300002952756</v>
+      </c>
+      <c r="M4">
+        <v>1.003813669678298</v>
+      </c>
+      <c r="N4">
+        <v>1.03277081832331</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.013400486839646</v>
+      </c>
+      <c r="D5">
+        <v>1.028828472936957</v>
+      </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>0.9612062874769891</v>
+      </c>
+      <c r="F5">
+        <v>0.9955176994498316</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.049213780467761</v>
+      </c>
+      <c r="J5">
+        <v>1.032021344772765</v>
+      </c>
+      <c r="K5">
+        <v>1.038374782063109</v>
+      </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
+      </c>
+      <c r="M5">
+        <v>1.005444557869344</v>
+      </c>
+      <c r="N5">
+        <v>1.033486933456844</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.013599476091501</v>
+      </c>
+      <c r="D6">
+        <v>1.02897892542138</v>
+      </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
+      <c r="F6">
+        <v>0.9958317597412546</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.049282115246564</v>
+      </c>
+      <c r="J6">
+        <v>1.032140757239485</v>
+      </c>
+      <c r="K6">
+        <v>1.038487292309363</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
+      </c>
+      <c r="M6">
+        <v>1.005716964171283</v>
+      </c>
+      <c r="N6">
+        <v>1.033606515502964</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.012225766125494</v>
+      </c>
+      <c r="D7">
+        <v>1.027940339967983</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>0.9600397355691357</v>
+      </c>
+      <c r="F7">
+        <v>0.9936630727965863</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.048809295383755</v>
+      </c>
+      <c r="J7">
+        <v>1.031315844564775</v>
+      </c>
+      <c r="K7">
+        <v>1.037709958501552</v>
+      </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>0.9706424616290568</v>
+      </c>
+      <c r="M7">
+        <v>1.003835558063226</v>
+      </c>
+      <c r="N7">
+        <v>1.032780431357637</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.006344261041521</v>
+      </c>
+      <c r="D8">
+        <v>1.023495330281061</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>0.9542328392922297</v>
+      </c>
+      <c r="F8">
+        <v>0.9843604013809822</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.046757992070788</v>
+      </c>
+      <c r="J8">
+        <v>1.027770016860676</v>
+      </c>
+      <c r="K8">
+        <v>1.034366176346609</v>
+      </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>0.966070643453771</v>
+      </c>
+      <c r="M8">
+        <v>0.9957564729527448</v>
+      </c>
+      <c r="N8">
+        <v>1.029229568171486</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9954064175954679</v>
+      </c>
+      <c r="D9">
+        <v>1.015238506778537</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>0.9435740419925933</v>
+      </c>
+      <c r="F9">
+        <v>0.9669648721690034</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.042841440167787</v>
+      </c>
+      <c r="J9">
+        <v>1.021122436459437</v>
+      </c>
+      <c r="K9">
+        <v>1.028089094917807</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>0.9576541208834081</v>
+      </c>
+      <c r="M9">
+        <v>0.9806176690561669</v>
+      </c>
+      <c r="N9">
+        <v>1.02257254744359</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9876787605374833</v>
+      </c>
+      <c r="D10">
+        <v>1.009414635559265</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547283</v>
+      </c>
+      <c r="F10">
+        <v>0.9545795953410392</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.040007168678984</v>
+      </c>
+      <c r="J10">
+        <v>1.016389904586613</v>
+      </c>
+      <c r="K10">
+        <v>1.023615961264445</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
+      </c>
+      <c r="M10">
+        <v>0.9698203888700802</v>
+      </c>
+      <c r="N10">
+        <v>1.017833294832678</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9842167273163638</v>
+      </c>
+      <c r="D11">
+        <v>1.00680852798949</v>
+      </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
+      </c>
+      <c r="F11">
+        <v>0.9490004160700372</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.03872184179514</v>
+      </c>
+      <c r="J11">
+        <v>1.014261175753714</v>
+      </c>
+      <c r="K11">
+        <v>1.021603177609371</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
+      </c>
+      <c r="M11">
+        <v>0.9649527571862767</v>
+      </c>
+      <c r="N11">
+        <v>1.015701542960667</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9829121720930494</v>
+      </c>
+      <c r="D12">
+        <v>1.005827019456081</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
+      </c>
+      <c r="F12">
+        <v>0.9468927319620408</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.038235202977303</v>
+      </c>
+      <c r="J12">
+        <v>1.013457748702987</v>
+      </c>
+      <c r="K12">
+        <v>1.020843428012795</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
+      </c>
+      <c r="M12">
+        <v>0.9631133723756452</v>
+      </c>
+      <c r="N12">
+        <v>1.014896974951374</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9831928657508984</v>
+      </c>
+      <c r="D13">
+        <v>1.00603818050572</v>
+      </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
+      <c r="F13">
+        <v>0.9473464852051647</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.038340013841532</v>
+      </c>
+      <c r="J13">
+        <v>1.013630675587249</v>
+      </c>
+      <c r="K13">
+        <v>1.021006957182178</v>
+      </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
+      </c>
+      <c r="M13">
+        <v>0.9635093865324731</v>
+      </c>
+      <c r="N13">
+        <v>1.015070147411647</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9841092791329271</v>
+      </c>
+      <c r="D14">
+        <v>1.006727676252452</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
+      </c>
+      <c r="F14">
+        <v>0.9488269325096889</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.038681806975104</v>
+      </c>
+      <c r="J14">
+        <v>1.014195028528297</v>
+      </c>
+      <c r="K14">
+        <v>1.02154062792022</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
+      </c>
+      <c r="M14">
+        <v>0.9648013672455092</v>
+      </c>
+      <c r="N14">
+        <v>1.015635301798603</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9846714092155878</v>
+      </c>
+      <c r="D15">
+        <v>1.007150684852814</v>
+      </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>0.9332781050737295</v>
+      </c>
+      <c r="F15">
+        <v>0.9497343131672994</v>
       </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.038891161033966</v>
+      </c>
+      <c r="J15">
+        <v>1.014541034591538</v>
+      </c>
+      <c r="K15">
+        <v>1.021867812622949</v>
       </c>
       <c r="L15">
         <v>0.9494987508782939</v>
+      </c>
+      <c r="M15">
+        <v>0.9655931702037575</v>
+      </c>
+      <c r="N15">
+        <v>1.015981799230141</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9879059834311732</v>
+      </c>
+      <c r="D16">
+        <v>1.009585749840422</v>
+      </c>
       <c r="E16">
         <v>0.9363637346017259</v>
       </c>
+      <c r="F16">
+        <v>0.9549450757584114</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.040091207679474</v>
+      </c>
+      <c r="J16">
+        <v>1.016529441565788</v>
+      </c>
+      <c r="K16">
+        <v>1.023747885148242</v>
+      </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9519451749175716</v>
+      </c>
+      <c r="M16">
+        <v>0.970139183769084</v>
+      </c>
+      <c r="N16">
+        <v>1.017973029970367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9899031113523443</v>
+      </c>
+      <c r="D17">
+        <v>1.011090073097505</v>
+      </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
+      </c>
+      <c r="F17">
+        <v>0.9581538448492343</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.040828089740441</v>
+      </c>
+      <c r="J17">
+        <v>1.01775490499342</v>
+      </c>
+      <c r="K17">
+        <v>1.024906407693727</v>
+      </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9534603602068051</v>
+      </c>
+      <c r="M17">
+        <v>0.9729376506414005</v>
+      </c>
+      <c r="N17">
+        <v>1.01920023369663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9910569050666409</v>
+      </c>
+      <c r="D18">
+        <v>1.011959441509394</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215687</v>
+      </c>
+      <c r="F18">
+        <v>0.9600048063854085</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.041252333168338</v>
+      </c>
+      <c r="J18">
+        <v>1.018462081821169</v>
+      </c>
+      <c r="K18">
+        <v>1.025574883892223</v>
+      </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.954337351586573</v>
+      </c>
+      <c r="M18">
+        <v>0.9745515694689857</v>
+      </c>
+      <c r="N18">
+        <v>1.019908414796589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9914484708611168</v>
+      </c>
+      <c r="D19">
+        <v>1.012254526968088</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684969</v>
+      </c>
+      <c r="F19">
+        <v>0.960632513183463</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.041396058891819</v>
+      </c>
+      <c r="J19">
+        <v>1.018701941494478</v>
+      </c>
+      <c r="K19">
+        <v>1.025801604263914</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9546352493816594</v>
+      </c>
+      <c r="M19">
+        <v>0.9750988260494886</v>
+      </c>
+      <c r="N19">
+        <v>1.020148615098146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9896899944854463</v>
+      </c>
+      <c r="D20">
+        <v>1.01092951461465</v>
+      </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
+      </c>
+      <c r="F20">
+        <v>0.9578117306285583</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.040749608497698</v>
+      </c>
+      <c r="J20">
+        <v>1.017624217411529</v>
+      </c>
+      <c r="K20">
+        <v>1.024782866112929</v>
+      </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9532985019057443</v>
+      </c>
+      <c r="M20">
+        <v>0.9726393194179768</v>
+      </c>
+      <c r="N20">
+        <v>1.019069360523383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9838399418651192</v>
+      </c>
+      <c r="D21">
+        <v>1.006525016109284</v>
+      </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
+      <c r="F21">
+        <v>0.9483919773518532</v>
+      </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.038581415848647</v>
+      </c>
+      <c r="J21">
+        <v>1.014029198488647</v>
+      </c>
+      <c r="K21">
+        <v>1.021383815613158</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0.9644217969257211</v>
+      </c>
+      <c r="N21">
+        <v>1.015469236261276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9800534799479231</v>
+      </c>
+      <c r="D22">
+        <v>1.003677254111007</v>
+      </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
+      <c r="F22">
+        <v>0.942263348408711</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.037164615514816</v>
+      </c>
+      <c r="J22">
+        <v>1.01169481496539</v>
+      </c>
+      <c r="K22">
+        <v>1.019176214168974</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9460223821572515</v>
+      </c>
+      <c r="M22">
+        <v>0.9590724322057044</v>
+      </c>
+      <c r="N22">
+        <v>1.013131537645658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9820714489049149</v>
+      </c>
+      <c r="D23">
+        <v>1.005194638945514</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963315</v>
+      </c>
+      <c r="F23">
+        <v>0.945532818655472</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.037920942029046</v>
+      </c>
+      <c r="J23">
+        <v>1.012939615841153</v>
+      </c>
+      <c r="K23">
+        <v>1.020353443201591</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9475391330285319</v>
+      </c>
+      <c r="M23">
+        <v>0.9619264359948975</v>
+      </c>
+      <c r="N23">
+        <v>1.014378106281445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9897863270302953</v>
+      </c>
+      <c r="D24">
+        <v>1.011002088985249</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>0.9381640424011829</v>
+      </c>
+      <c r="F24">
+        <v>0.9579663809517929</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.040785087962095</v>
+      </c>
+      <c r="J24">
+        <v>1.017683292980561</v>
+      </c>
+      <c r="K24">
+        <v>1.024838711650843</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9533716596442545</v>
+      </c>
+      <c r="M24">
+        <v>0.9727741790744512</v>
+      </c>
+      <c r="N24">
+        <v>1.019128519986499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9983069965601636</v>
+      </c>
+      <c r="D25">
+        <v>1.01742669269597</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718012</v>
+      </c>
+      <c r="F25">
+        <v>0.9715919181107827</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.043891713808911</v>
+      </c>
+      <c r="J25">
+        <v>1.022891471664509</v>
+      </c>
+      <c r="K25">
+        <v>1.029760373557228</v>
+      </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.9598754494005829</v>
+      </c>
+      <c r="M25">
+        <v>0.9846478452084372</v>
+      </c>
+      <c r="N25">
+        <v>1.024344094881565</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004792865276428</v>
+        <v>1.028686040142017</v>
       </c>
       <c r="D2">
-        <v>1.022323373947656</v>
+        <v>1.033738532769151</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.981901245150379</v>
+        <v>1.027240847223345</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046210097822223</v>
+        <v>1.035512461178826</v>
       </c>
       <c r="J2">
-        <v>1.026831161523356</v>
+        <v>1.033836983218924</v>
       </c>
       <c r="K2">
-        <v>1.033480228113446</v>
+        <v>1.036540017711374</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9936186188185112</v>
+        <v>1.03006115112178</v>
       </c>
       <c r="N2">
-        <v>1.0282893795519</v>
+        <v>1.035305150317866</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00933887585185</v>
+        <v>1.029595894531259</v>
       </c>
       <c r="D3">
-        <v>1.025758175453589</v>
+        <v>1.034435183756629</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9891006990055869</v>
+        <v>1.028782955642064</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047807710650909</v>
+        <v>1.035756701744745</v>
       </c>
       <c r="J3">
-        <v>1.029578151256455</v>
+        <v>1.034387754605021</v>
       </c>
       <c r="K3">
-        <v>1.03607175136835</v>
+        <v>1.037046011267685</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9998749645240194</v>
+        <v>1.031408958097205</v>
       </c>
       <c r="N3">
-        <v>1.031040270325504</v>
+        <v>1.035856703862494</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01220979306815</v>
+        <v>1.030184224280929</v>
       </c>
       <c r="D4">
-        <v>1.027928264394798</v>
+        <v>1.034885490620382</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9936378477049241</v>
+        <v>1.02978039551877</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048803782937137</v>
+        <v>1.03591310708797</v>
       </c>
       <c r="J4">
-        <v>1.031306245162699</v>
+        <v>1.034743118806055</v>
       </c>
       <c r="K4">
-        <v>1.037700911383512</v>
+        <v>1.037372277069489</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.003813669678298</v>
+        <v>1.032280191387182</v>
       </c>
       <c r="N4">
-        <v>1.03277081832331</v>
+        <v>1.036212572721454</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013400486839646</v>
+        <v>1.030431461001438</v>
       </c>
       <c r="D5">
-        <v>1.028828472936957</v>
+        <v>1.035074686105635</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9955176994498316</v>
+        <v>1.030199627043612</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049213780467761</v>
+        <v>1.035978468562857</v>
       </c>
       <c r="J5">
-        <v>1.032021344772765</v>
+        <v>1.034892269547781</v>
       </c>
       <c r="K5">
-        <v>1.038374782063109</v>
+        <v>1.037509164905341</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.005444557869344</v>
+        <v>1.032646249850399</v>
       </c>
       <c r="N5">
-        <v>1.033486933456844</v>
+        <v>1.036361935274341</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013599476091501</v>
+        <v>1.030472967448976</v>
       </c>
       <c r="D6">
-        <v>1.02897892542138</v>
+        <v>1.035106446194165</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9958317597412546</v>
+        <v>1.030270012609348</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049282115246564</v>
+        <v>1.035989420094244</v>
       </c>
       <c r="J6">
-        <v>1.032140757239485</v>
+        <v>1.034917298290334</v>
       </c>
       <c r="K6">
-        <v>1.038487292309363</v>
+        <v>1.037532132890088</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.005716964171283</v>
+        <v>1.032707700611583</v>
       </c>
       <c r="N6">
-        <v>1.033606515502964</v>
+        <v>1.03638699956058</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012225766125494</v>
+        <v>1.030187528251287</v>
       </c>
       <c r="D7">
-        <v>1.027940339967983</v>
+        <v>1.034888019106178</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9936630727965863</v>
+        <v>1.029785997666585</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048809295383755</v>
+        <v>1.035913981988868</v>
       </c>
       <c r="J7">
-        <v>1.031315844564775</v>
+        <v>1.034745112725493</v>
       </c>
       <c r="K7">
-        <v>1.037709958501552</v>
+        <v>1.037374107249292</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.003835558063226</v>
+        <v>1.032285083489967</v>
       </c>
       <c r="N7">
-        <v>1.032780431357637</v>
+        <v>1.036214569472487</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006344261041521</v>
+        <v>1.028993614124524</v>
       </c>
       <c r="D8">
-        <v>1.023495330281061</v>
+        <v>1.033974066971093</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9843604013809822</v>
+        <v>1.027762097548601</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046757992070788</v>
+        <v>1.035595341887312</v>
       </c>
       <c r="J8">
-        <v>1.027770016860676</v>
+        <v>1.034023330682774</v>
       </c>
       <c r="K8">
-        <v>1.034366176346609</v>
+        <v>1.036711257873264</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9957564729527448</v>
+        <v>1.030516835406754</v>
       </c>
       <c r="N8">
-        <v>1.029229568171486</v>
+        <v>1.035491762416477</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9954064175954679</v>
+        <v>1.026886654202034</v>
       </c>
       <c r="D9">
-        <v>1.015238506778537</v>
+        <v>1.032359957131968</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9669648721690034</v>
+        <v>1.024192367797846</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042841440167787</v>
+        <v>1.035021337245519</v>
       </c>
       <c r="J9">
-        <v>1.021122436459437</v>
+        <v>1.032743622191133</v>
       </c>
       <c r="K9">
-        <v>1.028089094917807</v>
+        <v>1.035534455099901</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9806176690561669</v>
+        <v>1.027393950896914</v>
       </c>
       <c r="N9">
-        <v>1.02257254744359</v>
+        <v>1.034210236591993</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9876787605374833</v>
+        <v>1.025479885627131</v>
       </c>
       <c r="D10">
-        <v>1.009414635559265</v>
+        <v>1.031281471048425</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9545795953410392</v>
+        <v>1.021809953571761</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040007168678984</v>
+        <v>1.034630246821288</v>
       </c>
       <c r="J10">
-        <v>1.016389904586613</v>
+        <v>1.0318851962094</v>
       </c>
       <c r="K10">
-        <v>1.023615961264445</v>
+        <v>1.034744013517697</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9698203888700802</v>
+        <v>1.025307029608644</v>
       </c>
       <c r="N10">
-        <v>1.017833294832678</v>
+        <v>1.033350591546903</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9842167273163638</v>
+        <v>1.024870228056729</v>
       </c>
       <c r="D11">
-        <v>1.00680852798949</v>
+        <v>1.03081390435335</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9490004160700372</v>
+        <v>1.020777651311267</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03872184179514</v>
+        <v>1.034458901847835</v>
       </c>
       <c r="J11">
-        <v>1.014261175753714</v>
+        <v>1.031512229386473</v>
       </c>
       <c r="K11">
-        <v>1.021603177609371</v>
+        <v>1.034400340707758</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9649527571862767</v>
+        <v>1.024402119440459</v>
       </c>
       <c r="N11">
-        <v>1.015701542960667</v>
+        <v>1.032977095068308</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9829121720930494</v>
+        <v>1.024643695673127</v>
       </c>
       <c r="D12">
-        <v>1.005827019456081</v>
+        <v>1.030640142914478</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9468927319620408</v>
+        <v>1.020394096386697</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038235202977303</v>
+        <v>1.034394955996377</v>
       </c>
       <c r="J12">
-        <v>1.013457748702987</v>
+        <v>1.031373502675721</v>
       </c>
       <c r="K12">
-        <v>1.020843428012795</v>
+        <v>1.034272473759659</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9631133723756452</v>
+        <v>1.024065800634514</v>
       </c>
       <c r="N12">
-        <v>1.014896974951374</v>
+        <v>1.032838171349715</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9831928657508984</v>
+        <v>1.024692291197792</v>
       </c>
       <c r="D13">
-        <v>1.00603818050572</v>
+        <v>1.030677419239766</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9473464852051647</v>
+        <v>1.020476375389461</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038340013841532</v>
+        <v>1.034408686208903</v>
       </c>
       <c r="J13">
-        <v>1.013630675587249</v>
+        <v>1.03140326864268</v>
       </c>
       <c r="K13">
-        <v>1.021006957182178</v>
+        <v>1.03429991123227</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9635093865324731</v>
+        <v>1.024137951069831</v>
       </c>
       <c r="N13">
-        <v>1.015070147411647</v>
+        <v>1.032867979587761</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9841092791329271</v>
+        <v>1.024851504422826</v>
       </c>
       <c r="D14">
-        <v>1.006727676252452</v>
+        <v>1.030799542939859</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9488269325096889</v>
+        <v>1.020745948862362</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038681806975104</v>
+        <v>1.034453622199073</v>
       </c>
       <c r="J14">
-        <v>1.014195028528297</v>
+        <v>1.031500766076883</v>
       </c>
       <c r="K14">
-        <v>1.02154062792022</v>
+        <v>1.034389775503391</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9648013672455092</v>
+        <v>1.024374323231323</v>
       </c>
       <c r="N14">
-        <v>1.015635301798603</v>
+        <v>1.032965615479504</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9846714092155878</v>
+        <v>1.024949590534252</v>
       </c>
       <c r="D15">
-        <v>1.007150684852814</v>
+        <v>1.03087477594124</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9497343131672994</v>
+        <v>1.020912026951261</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038891161033966</v>
+        <v>1.034481268894473</v>
       </c>
       <c r="J15">
-        <v>1.014541034591538</v>
+        <v>1.031560812241384</v>
       </c>
       <c r="K15">
-        <v>1.021867812622949</v>
+        <v>1.034445115804116</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9655931702037575</v>
+        <v>1.024519933928316</v>
       </c>
       <c r="N15">
-        <v>1.015981799230141</v>
+        <v>1.033025746916446</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9879059834311732</v>
+        <v>1.025520335632339</v>
       </c>
       <c r="D16">
-        <v>1.009585749840422</v>
+        <v>1.03131248979812</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9549450757584114</v>
+        <v>1.021878448740983</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040091207679474</v>
+        <v>1.034641576264396</v>
       </c>
       <c r="J16">
-        <v>1.016529441565788</v>
+        <v>1.03190992214125</v>
       </c>
       <c r="K16">
-        <v>1.023747885148242</v>
+        <v>1.03476679229639</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.970139183769084</v>
+        <v>1.02536705849839</v>
       </c>
       <c r="N16">
-        <v>1.017973029970367</v>
+        <v>1.033375352592413</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9899031113523443</v>
+        <v>1.025878209937022</v>
       </c>
       <c r="D17">
-        <v>1.011090073097505</v>
+        <v>1.031586902206338</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9581538448492343</v>
+        <v>1.022484467254391</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040828089740441</v>
+        <v>1.034741597192314</v>
       </c>
       <c r="J17">
-        <v>1.01775490499342</v>
+        <v>1.032128571132608</v>
       </c>
       <c r="K17">
-        <v>1.024906407693727</v>
+        <v>1.034968194743793</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9729376506414005</v>
+        <v>1.025898096180087</v>
       </c>
       <c r="N17">
-        <v>1.01920023369663</v>
+        <v>1.033594312090418</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9910569050666409</v>
+        <v>1.026086902079054</v>
       </c>
       <c r="D18">
-        <v>1.011959441509394</v>
+        <v>1.031746906829353</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9600048063854085</v>
+        <v>1.02283788038826</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041252333168338</v>
+        <v>1.034799744726093</v>
       </c>
       <c r="J18">
-        <v>1.018462081821169</v>
+        <v>1.03225598359238</v>
       </c>
       <c r="K18">
-        <v>1.025574883892223</v>
+        <v>1.035085533706508</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9745515694689857</v>
+        <v>1.026207720334865</v>
       </c>
       <c r="N18">
-        <v>1.019908414796589</v>
+        <v>1.033721905490497</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9914484708611168</v>
+        <v>1.026158052265194</v>
       </c>
       <c r="D19">
-        <v>1.012254526968088</v>
+        <v>1.031801454856693</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.960632513183463</v>
+        <v>1.022958373932563</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041396058891819</v>
+        <v>1.034819538805041</v>
       </c>
       <c r="J19">
-        <v>1.018701941494478</v>
+        <v>1.032299407305158</v>
       </c>
       <c r="K19">
-        <v>1.025801604263914</v>
+        <v>1.035125520255312</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9750988260494886</v>
+        <v>1.026313273794328</v>
       </c>
       <c r="N19">
-        <v>1.020148615098146</v>
+        <v>1.033765390869928</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9896899944854463</v>
+        <v>1.025839818575502</v>
       </c>
       <c r="D20">
-        <v>1.01092951461465</v>
+        <v>1.031557466091216</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9578117306285583</v>
+        <v>1.022419454201887</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040749608497698</v>
+        <v>1.03473088585554</v>
       </c>
       <c r="J20">
-        <v>1.017624217411529</v>
+        <v>1.032105124766795</v>
       </c>
       <c r="K20">
-        <v>1.024782866112929</v>
+        <v>1.034946600202799</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9726393194179768</v>
+        <v>1.025841133432865</v>
       </c>
       <c r="N20">
-        <v>1.019069360523383</v>
+        <v>1.033570832428077</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9838399418651192</v>
+        <v>1.024804622266462</v>
       </c>
       <c r="D21">
-        <v>1.006525016109284</v>
+        <v>1.030763582937354</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9483919773518532</v>
+        <v>1.020666569335401</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038581415848647</v>
+        <v>1.034440397972259</v>
       </c>
       <c r="J21">
-        <v>1.014029198488647</v>
+        <v>1.031472060767967</v>
       </c>
       <c r="K21">
-        <v>1.021383815613158</v>
+        <v>1.034363318557792</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9644217969257211</v>
+        <v>1.02430472294635</v>
       </c>
       <c r="N21">
-        <v>1.015469236261276</v>
+        <v>1.032936869405756</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9800534799479231</v>
+        <v>1.024153299224367</v>
       </c>
       <c r="D22">
-        <v>1.003677254111007</v>
+        <v>1.03026393751225</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.942263348408711</v>
+        <v>1.019563810347733</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037164615514816</v>
+        <v>1.034256016861596</v>
       </c>
       <c r="J22">
-        <v>1.01169481496539</v>
+        <v>1.031072927450235</v>
       </c>
       <c r="K22">
-        <v>1.019176214168974</v>
+        <v>1.033995362049142</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9590724322057044</v>
+        <v>1.023337590365613</v>
       </c>
       <c r="N22">
-        <v>1.013131537645658</v>
+        <v>1.032537169272932</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9820714489049149</v>
+        <v>1.024498621156335</v>
       </c>
       <c r="D23">
-        <v>1.005194638945514</v>
+        <v>1.030528856345645</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.945532818655472</v>
+        <v>1.020148467630061</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037920942029046</v>
+        <v>1.034353925758226</v>
       </c>
       <c r="J23">
-        <v>1.012939615841153</v>
+        <v>1.03128462009824</v>
       </c>
       <c r="K23">
-        <v>1.020353443201591</v>
+        <v>1.034190538888332</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9619264359948975</v>
+        <v>1.023850394684434</v>
       </c>
       <c r="N23">
-        <v>1.014378106281445</v>
+        <v>1.032749162548779</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9897863270302953</v>
+        <v>1.025857166133091</v>
       </c>
       <c r="D24">
-        <v>1.011002088985249</v>
+        <v>1.031570767175906</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9579663809517929</v>
+        <v>1.022448831007998</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040785087962095</v>
+        <v>1.034735726443722</v>
       </c>
       <c r="J24">
-        <v>1.017683292980561</v>
+        <v>1.03211571954638</v>
       </c>
       <c r="K24">
-        <v>1.024838711650843</v>
+        <v>1.034956358265394</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9727741790744512</v>
+        <v>1.025866872819355</v>
       </c>
       <c r="N24">
-        <v>1.019128519986499</v>
+        <v>1.033581442253464</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9983069965601636</v>
+        <v>1.027431727250192</v>
       </c>
       <c r="D25">
-        <v>1.01742669269597</v>
+        <v>1.032777669467803</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9715919181107827</v>
+        <v>1.025115661071168</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043891713808911</v>
+        <v>1.035171215170363</v>
       </c>
       <c r="J25">
-        <v>1.022891471664509</v>
+        <v>1.03307538799971</v>
       </c>
       <c r="K25">
-        <v>1.029760373557228</v>
+        <v>1.035839727469045</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9846478452084372</v>
+        <v>1.028202151170931</v>
       </c>
       <c r="N25">
-        <v>1.024344094881565</v>
+        <v>1.034542473546073</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028686040142017</v>
+        <v>1.004792865276427</v>
       </c>
       <c r="D2">
-        <v>1.033738532769151</v>
+        <v>1.022323373947655</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.027240847223345</v>
+        <v>0.9819012451503785</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035512461178826</v>
+        <v>1.046210097822223</v>
       </c>
       <c r="J2">
-        <v>1.033836983218924</v>
+        <v>1.026831161523355</v>
       </c>
       <c r="K2">
-        <v>1.036540017711374</v>
+        <v>1.033480228113446</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.03006115112178</v>
+        <v>0.9936186188185107</v>
       </c>
       <c r="N2">
-        <v>1.035305150317866</v>
+        <v>1.028289379551899</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029595894531259</v>
+        <v>1.009338875851849</v>
       </c>
       <c r="D3">
-        <v>1.034435183756629</v>
+        <v>1.025758175453588</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.028782955642064</v>
+        <v>0.9891006990055864</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035756701744745</v>
+        <v>1.047807710650908</v>
       </c>
       <c r="J3">
-        <v>1.034387754605021</v>
+        <v>1.029578151256454</v>
       </c>
       <c r="K3">
-        <v>1.037046011267685</v>
+        <v>1.036071751368349</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.031408958097205</v>
+        <v>0.9998749645240188</v>
       </c>
       <c r="N3">
-        <v>1.035856703862494</v>
+        <v>1.031040270325503</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030184224280929</v>
+        <v>1.012209793068149</v>
       </c>
       <c r="D4">
-        <v>1.034885490620382</v>
+        <v>1.027928264394798</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.02978039551877</v>
+        <v>0.9936378477049239</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03591310708797</v>
+        <v>1.048803782937137</v>
       </c>
       <c r="J4">
-        <v>1.034743118806055</v>
+        <v>1.031306245162698</v>
       </c>
       <c r="K4">
-        <v>1.037372277069489</v>
+        <v>1.037700911383511</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.032280191387182</v>
+        <v>1.003813669678297</v>
       </c>
       <c r="N4">
-        <v>1.036212572721454</v>
+        <v>1.032770818323309</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030431461001438</v>
+        <v>1.013400486839646</v>
       </c>
       <c r="D5">
-        <v>1.035074686105635</v>
+        <v>1.028828472936957</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.030199627043612</v>
+        <v>0.9955176994498316</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035978468562857</v>
+        <v>1.049213780467761</v>
       </c>
       <c r="J5">
-        <v>1.034892269547781</v>
+        <v>1.032021344772765</v>
       </c>
       <c r="K5">
-        <v>1.037509164905341</v>
+        <v>1.03837478206311</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.032646249850399</v>
+        <v>1.005444557869344</v>
       </c>
       <c r="N5">
-        <v>1.036361935274341</v>
+        <v>1.033486933456845</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030472967448976</v>
+        <v>1.013599476091502</v>
       </c>
       <c r="D6">
-        <v>1.035106446194165</v>
+        <v>1.028978925421381</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.030270012609348</v>
+        <v>0.995831759741255</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035989420094244</v>
+        <v>1.049282115246565</v>
       </c>
       <c r="J6">
-        <v>1.034917298290334</v>
+        <v>1.032140757239485</v>
       </c>
       <c r="K6">
-        <v>1.037532132890088</v>
+        <v>1.038487292309364</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.032707700611583</v>
+        <v>1.005716964171284</v>
       </c>
       <c r="N6">
-        <v>1.03638699956058</v>
+        <v>1.033606515502965</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030187528251287</v>
+        <v>1.012225766125494</v>
       </c>
       <c r="D7">
-        <v>1.034888019106178</v>
+        <v>1.027940339967982</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.029785997666585</v>
+        <v>0.9936630727965857</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035913981988868</v>
+        <v>1.048809295383754</v>
       </c>
       <c r="J7">
-        <v>1.034745112725493</v>
+        <v>1.031315844564774</v>
       </c>
       <c r="K7">
-        <v>1.037374107249292</v>
+        <v>1.037709958501551</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.032285083489967</v>
+        <v>1.003835558063225</v>
       </c>
       <c r="N7">
-        <v>1.036214569472487</v>
+        <v>1.032780431357637</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028993614124524</v>
+        <v>1.00634426104152</v>
       </c>
       <c r="D8">
-        <v>1.033974066971093</v>
+        <v>1.023495330281061</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.027762097548601</v>
+        <v>0.9843604013809822</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035595341887312</v>
+        <v>1.046757992070788</v>
       </c>
       <c r="J8">
-        <v>1.034023330682774</v>
+        <v>1.027770016860675</v>
       </c>
       <c r="K8">
-        <v>1.036711257873264</v>
+        <v>1.034366176346608</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.030516835406754</v>
+        <v>0.9957564729527444</v>
       </c>
       <c r="N8">
-        <v>1.035491762416477</v>
+        <v>1.029229568171486</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026886654202034</v>
+        <v>0.9954064175954678</v>
       </c>
       <c r="D9">
-        <v>1.032359957131968</v>
+        <v>1.015238506778537</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.024192367797846</v>
+        <v>0.9669648721690036</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035021337245519</v>
+        <v>1.042841440167787</v>
       </c>
       <c r="J9">
-        <v>1.032743622191133</v>
+        <v>1.021122436459437</v>
       </c>
       <c r="K9">
-        <v>1.035534455099901</v>
+        <v>1.028089094917806</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.027393950896914</v>
+        <v>0.9806176690561671</v>
       </c>
       <c r="N9">
-        <v>1.034210236591993</v>
+        <v>1.02257254744359</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025479885627131</v>
+        <v>0.987678760537483</v>
       </c>
       <c r="D10">
-        <v>1.031281471048425</v>
+        <v>1.009414635559265</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.021809953571761</v>
+        <v>0.9545795953410388</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034630246821288</v>
+        <v>1.040007168678984</v>
       </c>
       <c r="J10">
-        <v>1.0318851962094</v>
+        <v>1.016389904586613</v>
       </c>
       <c r="K10">
-        <v>1.034744013517697</v>
+        <v>1.023615961264445</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.025307029608644</v>
+        <v>0.9698203888700796</v>
       </c>
       <c r="N10">
-        <v>1.033350591546903</v>
+        <v>1.017833294832677</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024870228056729</v>
+        <v>0.9842167273163629</v>
       </c>
       <c r="D11">
-        <v>1.03081390435335</v>
+        <v>1.006808527989489</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.020777651311267</v>
+        <v>0.9490004160700365</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034458901847835</v>
+        <v>1.03872184179514</v>
       </c>
       <c r="J11">
-        <v>1.031512229386473</v>
+        <v>1.014261175753713</v>
       </c>
       <c r="K11">
-        <v>1.034400340707758</v>
+        <v>1.021603177609371</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.024402119440459</v>
+        <v>0.9649527571862759</v>
       </c>
       <c r="N11">
-        <v>1.032977095068308</v>
+        <v>1.015701542960667</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024643695673127</v>
+        <v>0.9829121720930484</v>
       </c>
       <c r="D12">
-        <v>1.030640142914478</v>
+        <v>1.00582701945608</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.020394096386697</v>
+        <v>0.9468927319620398</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034394955996377</v>
+        <v>1.038235202977303</v>
       </c>
       <c r="J12">
-        <v>1.031373502675721</v>
+        <v>1.013457748702986</v>
       </c>
       <c r="K12">
-        <v>1.034272473759659</v>
+        <v>1.020843428012794</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.024065800634514</v>
+        <v>0.9631133723756441</v>
       </c>
       <c r="N12">
-        <v>1.032838171349715</v>
+        <v>1.014896974951373</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024692291197792</v>
+        <v>0.9831928657508979</v>
       </c>
       <c r="D13">
-        <v>1.030677419239766</v>
+        <v>1.00603818050572</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.020476375389461</v>
+        <v>0.947346485205165</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034408686208903</v>
+        <v>1.038340013841532</v>
       </c>
       <c r="J13">
-        <v>1.03140326864268</v>
+        <v>1.013630675587249</v>
       </c>
       <c r="K13">
-        <v>1.03429991123227</v>
+        <v>1.021006957182178</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.024137951069831</v>
+        <v>0.9635093865324733</v>
       </c>
       <c r="N13">
-        <v>1.032867979587761</v>
+        <v>1.015070147411646</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024851504422826</v>
+        <v>0.9841092791329261</v>
       </c>
       <c r="D14">
-        <v>1.030799542939859</v>
+        <v>1.006727676252451</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.020745948862362</v>
+        <v>0.9488269325096871</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034453622199073</v>
+        <v>1.038681806975104</v>
       </c>
       <c r="J14">
-        <v>1.031500766076883</v>
+        <v>1.014195028528296</v>
       </c>
       <c r="K14">
-        <v>1.034389775503391</v>
+        <v>1.021540627920219</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.024374323231323</v>
+        <v>0.9648013672455078</v>
       </c>
       <c r="N14">
-        <v>1.032965615479504</v>
+        <v>1.015635301798602</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024949590534252</v>
+        <v>0.9846714092155868</v>
       </c>
       <c r="D15">
-        <v>1.03087477594124</v>
+        <v>1.007150684852813</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.020912026951261</v>
+        <v>0.9497343131672989</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034481268894473</v>
+        <v>1.038891161033965</v>
       </c>
       <c r="J15">
-        <v>1.031560812241384</v>
+        <v>1.014541034591537</v>
       </c>
       <c r="K15">
-        <v>1.034445115804116</v>
+        <v>1.021867812622949</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.024519933928316</v>
+        <v>0.9655931702037568</v>
       </c>
       <c r="N15">
-        <v>1.033025746916446</v>
+        <v>1.01598179923014</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025520335632339</v>
+        <v>0.9879059834311723</v>
       </c>
       <c r="D16">
-        <v>1.03131248979812</v>
+        <v>1.009585749840421</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.021878448740983</v>
+        <v>0.9549450757584105</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034641576264396</v>
+        <v>1.040091207679473</v>
       </c>
       <c r="J16">
-        <v>1.03190992214125</v>
+        <v>1.016529441565786</v>
       </c>
       <c r="K16">
-        <v>1.03476679229639</v>
+        <v>1.023747885148241</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.02536705849839</v>
+        <v>0.9701391837690831</v>
       </c>
       <c r="N16">
-        <v>1.033375352592413</v>
+        <v>1.017973029970366</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025878209937022</v>
+        <v>0.9899031113523445</v>
       </c>
       <c r="D17">
-        <v>1.031586902206338</v>
+        <v>1.011090073097505</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.022484467254391</v>
+        <v>0.9581538448492344</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034741597192314</v>
+        <v>1.040828089740441</v>
       </c>
       <c r="J17">
-        <v>1.032128571132608</v>
+        <v>1.01775490499342</v>
       </c>
       <c r="K17">
-        <v>1.034968194743793</v>
+        <v>1.024906407693727</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.025898096180087</v>
+        <v>0.9729376506414007</v>
       </c>
       <c r="N17">
-        <v>1.033594312090418</v>
+        <v>1.01920023369663</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026086902079054</v>
+        <v>0.9910569050666403</v>
       </c>
       <c r="D18">
-        <v>1.031746906829353</v>
+        <v>1.011959441509394</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.02283788038826</v>
+        <v>0.9600048063854085</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034799744726093</v>
+        <v>1.041252333168338</v>
       </c>
       <c r="J18">
-        <v>1.03225598359238</v>
+        <v>1.018462081821169</v>
       </c>
       <c r="K18">
-        <v>1.035085533706508</v>
+        <v>1.025574883892223</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.026207720334865</v>
+        <v>0.9745515694689858</v>
       </c>
       <c r="N18">
-        <v>1.033721905490497</v>
+        <v>1.019908414796588</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026158052265194</v>
+        <v>0.9914484708611164</v>
       </c>
       <c r="D19">
-        <v>1.031801454856693</v>
+        <v>1.012254526968088</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.022958373932563</v>
+        <v>0.9606325131834629</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034819538805041</v>
+        <v>1.041396058891819</v>
       </c>
       <c r="J19">
-        <v>1.032299407305158</v>
+        <v>1.018701941494478</v>
       </c>
       <c r="K19">
-        <v>1.035125520255312</v>
+        <v>1.025801604263914</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.026313273794328</v>
+        <v>0.9750988260494885</v>
       </c>
       <c r="N19">
-        <v>1.033765390869928</v>
+        <v>1.020148615098146</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025839818575502</v>
+        <v>0.9896899944854468</v>
       </c>
       <c r="D20">
-        <v>1.031557466091216</v>
+        <v>1.010929514614651</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.022419454201887</v>
+        <v>0.9578117306285586</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03473088585554</v>
+        <v>1.040749608497698</v>
       </c>
       <c r="J20">
-        <v>1.032105124766795</v>
+        <v>1.01762421741153</v>
       </c>
       <c r="K20">
-        <v>1.034946600202799</v>
+        <v>1.02478286611293</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.025841133432865</v>
+        <v>0.9726393194179772</v>
       </c>
       <c r="N20">
-        <v>1.033570832428077</v>
+        <v>1.019069360523383</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024804622266462</v>
+        <v>0.9838399418651191</v>
       </c>
       <c r="D21">
-        <v>1.030763582937354</v>
+        <v>1.006525016109283</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.020666569335401</v>
+        <v>0.948391977351853</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034440397972259</v>
+        <v>1.038581415848646</v>
       </c>
       <c r="J21">
-        <v>1.031472060767967</v>
+        <v>1.014029198488646</v>
       </c>
       <c r="K21">
-        <v>1.034363318557792</v>
+        <v>1.021383815613158</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.02430472294635</v>
+        <v>0.9644217969257206</v>
       </c>
       <c r="N21">
-        <v>1.032936869405756</v>
+        <v>1.015469236261275</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024153299224367</v>
+        <v>0.9800534799479227</v>
       </c>
       <c r="D22">
-        <v>1.03026393751225</v>
+        <v>1.003677254111007</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.019563810347733</v>
+        <v>0.9422633484087104</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034256016861596</v>
+        <v>1.037164615514816</v>
       </c>
       <c r="J22">
-        <v>1.031072927450235</v>
+        <v>1.011694814965389</v>
       </c>
       <c r="K22">
-        <v>1.033995362049142</v>
+        <v>1.019176214168973</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.023337590365613</v>
+        <v>0.959072432205704</v>
       </c>
       <c r="N22">
-        <v>1.032537169272932</v>
+        <v>1.013131537645658</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024498621156335</v>
+        <v>0.9820714489049152</v>
       </c>
       <c r="D23">
-        <v>1.030528856345645</v>
+        <v>1.005194638945514</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.020148467630061</v>
+        <v>0.9455328186554722</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034353925758226</v>
+        <v>1.037920942029047</v>
       </c>
       <c r="J23">
-        <v>1.03128462009824</v>
+        <v>1.012939615841153</v>
       </c>
       <c r="K23">
-        <v>1.034190538888332</v>
+        <v>1.020353443201592</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.023850394684434</v>
+        <v>0.961926435994898</v>
       </c>
       <c r="N23">
-        <v>1.032749162548779</v>
+        <v>1.014378106281446</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025857166133091</v>
+        <v>0.9897863270302951</v>
       </c>
       <c r="D24">
-        <v>1.031570767175906</v>
+        <v>1.011002088985249</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.022448831007998</v>
+        <v>0.9579663809517921</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034735726443722</v>
+        <v>1.040785087962095</v>
       </c>
       <c r="J24">
-        <v>1.03211571954638</v>
+        <v>1.017683292980561</v>
       </c>
       <c r="K24">
-        <v>1.034956358265394</v>
+        <v>1.024838711650843</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.025866872819355</v>
+        <v>0.9727741790744505</v>
       </c>
       <c r="N24">
-        <v>1.033581442253464</v>
+        <v>1.019128519986498</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027431727250192</v>
+        <v>0.9983069965601625</v>
       </c>
       <c r="D25">
-        <v>1.032777669467803</v>
+        <v>1.017426692695969</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.025115661071168</v>
+        <v>0.9715919181107819</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035171215170363</v>
+        <v>1.04389171380891</v>
       </c>
       <c r="J25">
-        <v>1.03307538799971</v>
+        <v>1.022891471664508</v>
       </c>
       <c r="K25">
-        <v>1.035839727469045</v>
+        <v>1.029760373557227</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.028202151170931</v>
+        <v>0.9846478452084365</v>
       </c>
       <c r="N25">
-        <v>1.034542473546073</v>
+        <v>1.024344094881564</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004792865276427</v>
+        <v>1.019517029205777</v>
       </c>
       <c r="D2">
-        <v>1.022323373947655</v>
+        <v>1.035115204183101</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9819012451503785</v>
+        <v>1.034285161362003</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046210097822223</v>
+        <v>1.055505166957062</v>
       </c>
       <c r="J2">
-        <v>1.026831161523355</v>
+        <v>1.04112925758027</v>
       </c>
       <c r="K2">
-        <v>1.033480228113446</v>
+        <v>1.046106080609149</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9936186188185107</v>
+        <v>1.045286652142554</v>
       </c>
       <c r="N2">
-        <v>1.028289379551899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017338482750096</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044413727536111</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043671266292095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009338875851849</v>
+        <v>1.02330878231259</v>
       </c>
       <c r="D3">
-        <v>1.025758175453588</v>
+        <v>1.037660741390642</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9891006990055864</v>
+        <v>1.03706410702502</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047807710650908</v>
+        <v>1.056632504909501</v>
       </c>
       <c r="J3">
-        <v>1.029578151256454</v>
+        <v>1.043183583424321</v>
       </c>
       <c r="K3">
-        <v>1.036071751368349</v>
+        <v>1.047833397551362</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9998749645240188</v>
+        <v>1.047243731729815</v>
       </c>
       <c r="N3">
-        <v>1.031040270325503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018044824440913</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045962614823056</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044889966719712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012209793068149</v>
+        <v>1.025716306556958</v>
       </c>
       <c r="D4">
-        <v>1.027928264394798</v>
+        <v>1.039280367819341</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9936378477049239</v>
+        <v>1.03883620874428</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048803782937137</v>
+        <v>1.057338624115729</v>
       </c>
       <c r="J4">
-        <v>1.031306245162698</v>
+        <v>1.044484302911808</v>
       </c>
       <c r="K4">
-        <v>1.037700911383511</v>
+        <v>1.048926746621229</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.003813669678297</v>
+        <v>1.048487464144072</v>
       </c>
       <c r="N4">
-        <v>1.032770818323309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018492269942453</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046946937594842</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045663936480838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013400486839646</v>
+        <v>1.026722341074467</v>
       </c>
       <c r="D5">
-        <v>1.028828472936957</v>
+        <v>1.039960221635006</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9955176994498316</v>
+        <v>1.039577299527182</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049213780467761</v>
+        <v>1.057633125193559</v>
       </c>
       <c r="J5">
-        <v>1.032021344772765</v>
+        <v>1.045028942565441</v>
       </c>
       <c r="K5">
-        <v>1.03837478206311</v>
+        <v>1.049386020325834</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.005444557869344</v>
+        <v>1.049007191163763</v>
       </c>
       <c r="N5">
-        <v>1.033486933456845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01868078602776</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047358262933462</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045995789989523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013599476091502</v>
+        <v>1.026896236294257</v>
       </c>
       <c r="D6">
-        <v>1.028978925421381</v>
+        <v>1.040080546691601</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.995831759741255</v>
+        <v>1.039704023877546</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049282115246565</v>
+        <v>1.057686071428314</v>
       </c>
       <c r="J6">
-        <v>1.032140757239485</v>
+        <v>1.045125469934535</v>
       </c>
       <c r="K6">
-        <v>1.038487292309364</v>
+        <v>1.049469281217057</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.005716964171284</v>
+        <v>1.049096764612459</v>
       </c>
       <c r="N6">
-        <v>1.033606515502965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018715545040645</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047429153642804</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04606333567849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012225766125494</v>
+        <v>1.025744862366554</v>
       </c>
       <c r="D7">
-        <v>1.027940339967982</v>
+        <v>1.039307065469487</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9936630727965857</v>
+        <v>1.038853251808299</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048809295383754</v>
+        <v>1.057352839149567</v>
       </c>
       <c r="J7">
-        <v>1.031315844564774</v>
+        <v>1.044506318049455</v>
       </c>
       <c r="K7">
-        <v>1.037709958501551</v>
+        <v>1.048950301109709</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.003835558063225</v>
+        <v>1.048501468133042</v>
       </c>
       <c r="N7">
-        <v>1.032780431357637</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018503555970975</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046958020715112</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045700543981803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00634426104152</v>
+        <v>1.020827112570711</v>
       </c>
       <c r="D8">
-        <v>1.023495330281061</v>
+        <v>1.036003167435887</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9843604013809822</v>
+        <v>1.035238735987988</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046757992070788</v>
+        <v>1.055903824493799</v>
       </c>
       <c r="J8">
-        <v>1.027770016860675</v>
+        <v>1.041847943878138</v>
       </c>
       <c r="K8">
-        <v>1.034366176346608</v>
+        <v>1.046716575045461</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9957564729527444</v>
+        <v>1.045961629669431</v>
       </c>
       <c r="N8">
-        <v>1.029229568171486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017590371957726</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.0449479239177</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044125673820032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9954064175954678</v>
+        <v>1.011769550400298</v>
       </c>
       <c r="D9">
-        <v>1.015238506778537</v>
+        <v>1.029934629205226</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9669648721690036</v>
+        <v>1.028650660642155</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042841440167787</v>
+        <v>1.053150589413688</v>
       </c>
       <c r="J9">
-        <v>1.021122436459437</v>
+        <v>1.036913433188152</v>
       </c>
       <c r="K9">
-        <v>1.028089094917806</v>
+        <v>1.042560014749206</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9806176690561671</v>
+        <v>1.041295394901264</v>
       </c>
       <c r="N9">
-        <v>1.02257254744359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015890846793634</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041254925215612</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041183591015387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.987678760537483</v>
+        <v>1.005558093609741</v>
       </c>
       <c r="D10">
-        <v>1.009414635559265</v>
+        <v>1.025808816251988</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9545795953410388</v>
+        <v>1.024338846619094</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040007168678984</v>
+        <v>1.051249707114854</v>
       </c>
       <c r="J10">
-        <v>1.016389904586613</v>
+        <v>1.033552913520108</v>
       </c>
       <c r="K10">
-        <v>1.023615961264445</v>
+        <v>1.039727212361709</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9698203888700796</v>
+        <v>1.038282134252143</v>
       </c>
       <c r="N10">
-        <v>1.017833294832677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01475410801622</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038921540727049</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03919736126165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9842167273163629</v>
+        <v>1.003523311512465</v>
       </c>
       <c r="D11">
-        <v>1.006808527989489</v>
+        <v>1.024561588753981</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9490004160700365</v>
+        <v>1.024228350688436</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03872184179514</v>
+        <v>1.050880553383062</v>
       </c>
       <c r="J11">
-        <v>1.014261175753713</v>
+        <v>1.032750247629811</v>
       </c>
       <c r="K11">
-        <v>1.021603177609371</v>
+        <v>1.039034712569822</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9649527571862759</v>
+        <v>1.03870737662129</v>
       </c>
       <c r="N11">
-        <v>1.015701542960667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014631578505317</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039693667862296</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038740416755845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9829121720930484</v>
+        <v>1.00296240617732</v>
       </c>
       <c r="D12">
-        <v>1.00582701945608</v>
+        <v>1.024248364115996</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9468927319620398</v>
+        <v>1.02477634781532</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038235202977303</v>
+        <v>1.050876826061881</v>
       </c>
       <c r="J12">
-        <v>1.013457748702986</v>
+        <v>1.032641918669782</v>
       </c>
       <c r="K12">
-        <v>1.020843428012794</v>
+        <v>1.038925295899819</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9631133723756441</v>
+        <v>1.039443783460248</v>
       </c>
       <c r="N12">
-        <v>1.014896974951373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014698934680647</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040601929853372</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.038663056361598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9831928657508979</v>
+        <v>1.003519907176128</v>
       </c>
       <c r="D13">
-        <v>1.00603818050572</v>
+        <v>1.02465587765515</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.947346485205165</v>
+        <v>1.025897299517806</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038340013841532</v>
+        <v>1.051173083027892</v>
       </c>
       <c r="J13">
-        <v>1.013630675587249</v>
+        <v>1.033083962609401</v>
       </c>
       <c r="K13">
-        <v>1.021006957182178</v>
+        <v>1.039282977552664</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>0.9635093865324733</v>
+        <v>1.040502189176331</v>
       </c>
       <c r="N13">
-        <v>1.015070147411646</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014930406594823</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041714892026385</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038913466715641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9841092791329261</v>
+        <v>1.004408311950017</v>
       </c>
       <c r="D14">
-        <v>1.006727676252451</v>
+        <v>1.025261875675401</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9488269325096871</v>
+        <v>1.026926302398193</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038681806975104</v>
+        <v>1.051510468163826</v>
       </c>
       <c r="J14">
-        <v>1.014195028528296</v>
+        <v>1.033634236733721</v>
       </c>
       <c r="K14">
-        <v>1.021540627920219</v>
+        <v>1.039738978293258</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9648013672455078</v>
+        <v>1.041374013845033</v>
       </c>
       <c r="N14">
-        <v>1.015635301798602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015162588216578</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042577016348675</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039237288229349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9846714092155868</v>
+        <v>1.004884032718356</v>
       </c>
       <c r="D15">
-        <v>1.007150684852813</v>
+        <v>1.025581668322338</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9497343131672989</v>
+        <v>1.027337704076696</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038891161033965</v>
+        <v>1.051670088542564</v>
       </c>
       <c r="J15">
-        <v>1.014541034591537</v>
+        <v>1.033905164005065</v>
       </c>
       <c r="K15">
-        <v>1.021867812622949</v>
+        <v>1.039967414947319</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>0.9655931702037568</v>
+        <v>1.041692681529701</v>
       </c>
       <c r="N15">
-        <v>1.01598179923014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015263490775383</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042866352266703</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039404638268538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9879059834311723</v>
+        <v>1.007408918184915</v>
       </c>
       <c r="D16">
-        <v>1.009585749840421</v>
+        <v>1.027253260325675</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9549450757584105</v>
+        <v>1.02899725533447</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040091207679473</v>
+        <v>1.052436367089854</v>
       </c>
       <c r="J16">
-        <v>1.016529441565786</v>
+        <v>1.035255781207159</v>
       </c>
       <c r="K16">
-        <v>1.023747885148241</v>
+        <v>1.041112000763928</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9701391837690831</v>
+        <v>1.042826775134352</v>
       </c>
       <c r="N16">
-        <v>1.017973029970366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015705972474768</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043724105160643</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040217040827552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9899031113523445</v>
+        <v>1.008888488282453</v>
       </c>
       <c r="D17">
-        <v>1.011090073097505</v>
+        <v>1.028225495590075</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9581538448492344</v>
+        <v>1.029731299551858</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040828089740441</v>
+        <v>1.052849299035298</v>
       </c>
       <c r="J17">
-        <v>1.01775490499342</v>
+        <v>1.036009328686054</v>
       </c>
       <c r="K17">
-        <v>1.024906407693727</v>
+        <v>1.041756089760925</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9729376506414007</v>
+        <v>1.043237367730972</v>
       </c>
       <c r="N17">
-        <v>1.01920023369663</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015926727074929</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043919904333384</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040675002654924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9910569050666403</v>
+        <v>1.0095593414486</v>
       </c>
       <c r="D18">
-        <v>1.011959441509394</v>
+        <v>1.028640176706713</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9600048063854085</v>
+        <v>1.029616837426946</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041252333168338</v>
+        <v>1.052960155526098</v>
       </c>
       <c r="J18">
-        <v>1.018462081821169</v>
+        <v>1.036266010013175</v>
       </c>
       <c r="K18">
-        <v>1.025574883892223</v>
+        <v>1.041982201017796</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9745515694689858</v>
+        <v>1.042943205105759</v>
       </c>
       <c r="N18">
-        <v>1.019908414796588</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015948685877153</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043450236234389</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040823301313229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9914484708611164</v>
+        <v>1.0094643645249</v>
       </c>
       <c r="D19">
-        <v>1.012254526968088</v>
+        <v>1.028529264310807</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9606325131834629</v>
+        <v>1.028668452792798</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041396058891819</v>
+        <v>1.052778167046607</v>
       </c>
       <c r="J19">
-        <v>1.018701941494478</v>
+        <v>1.036041960434454</v>
       </c>
       <c r="K19">
-        <v>1.025801604263914</v>
+        <v>1.041811065205217</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9750988260494885</v>
+        <v>1.041948031337038</v>
       </c>
       <c r="N19">
-        <v>1.020148615098146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015780085269372</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042338571924069</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040708661452404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9896899944854468</v>
+        <v>1.007210545771049</v>
       </c>
       <c r="D20">
-        <v>1.010929514614651</v>
+        <v>1.026923710374848</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9578117306285586</v>
+        <v>1.025481415448166</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040749608497698</v>
+        <v>1.051774279305881</v>
       </c>
       <c r="J20">
-        <v>1.01762421741153</v>
+        <v>1.034466314991824</v>
       </c>
       <c r="K20">
-        <v>1.02478286611293</v>
+        <v>1.040509102082893</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9726393194179772</v>
+        <v>1.03909052959733</v>
       </c>
       <c r="N20">
-        <v>1.019069360523383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015074762929315</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.03955075668188</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03979203595851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9838399418651191</v>
+        <v>1.00239403876799</v>
       </c>
       <c r="D21">
-        <v>1.006525016109283</v>
+        <v>1.023709342778379</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.948391977351853</v>
+        <v>1.021902474666468</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038581415848646</v>
+        <v>1.050228964959877</v>
       </c>
       <c r="J21">
-        <v>1.014029198488646</v>
+        <v>1.031792006097728</v>
       </c>
       <c r="K21">
-        <v>1.021383815613158</v>
+        <v>1.038255038533213</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9644217969257206</v>
+        <v>1.036480448680498</v>
       </c>
       <c r="N21">
-        <v>1.015469236261275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014140633201476</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.03744421200809</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038201559787193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9800534799479227</v>
+        <v>0.9993311716269814</v>
       </c>
       <c r="D22">
-        <v>1.003677254111007</v>
+        <v>1.02166947796323</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9422633484087104</v>
+        <v>1.019722788003685</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037164615514816</v>
+        <v>1.049247905436819</v>
       </c>
       <c r="J22">
-        <v>1.011694814965389</v>
+        <v>1.030100748204873</v>
       </c>
       <c r="K22">
-        <v>1.019176214168973</v>
+        <v>1.036823543472615</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.959072432205704</v>
+        <v>1.03491340279637</v>
       </c>
       <c r="N22">
-        <v>1.013131537645658</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013554343939438</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036203993890368</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037175995518738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9820714489049152</v>
+        <v>1.00094667631013</v>
       </c>
       <c r="D23">
-        <v>1.005194638945514</v>
+        <v>1.022738321852485</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9455328186554722</v>
+        <v>1.020874953469066</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037920942029047</v>
+        <v>1.049761408697081</v>
       </c>
       <c r="J23">
-        <v>1.012939615841153</v>
+        <v>1.030987217796</v>
       </c>
       <c r="K23">
-        <v>1.020353443201592</v>
+        <v>1.037569693236804</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.961926435994898</v>
+        <v>1.035740406833219</v>
       </c>
       <c r="N23">
-        <v>1.014378106281446</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013857542692064</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036858515766622</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03769395645995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9897863270302951</v>
+        <v>1.007194900720927</v>
       </c>
       <c r="D24">
-        <v>1.011002088985249</v>
+        <v>1.02689340173596</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.9579663809517921</v>
+        <v>1.02534738259902</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040785087962095</v>
+        <v>1.051735642820782</v>
       </c>
       <c r="J24">
-        <v>1.017683292980561</v>
+        <v>1.034418774465371</v>
       </c>
       <c r="K24">
-        <v>1.024838711650843</v>
+        <v>1.040464144238912</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9727741790744505</v>
+        <v>1.03894352626376</v>
       </c>
       <c r="N24">
-        <v>1.019128519986498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01503846924236</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039393578421904</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039732987187807</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9983069965601625</v>
+        <v>1.01418129901802</v>
       </c>
       <c r="D25">
-        <v>1.017426692695969</v>
+        <v>1.031558400104437</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.9715919181107819</v>
+        <v>1.030391001415826</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04389171380891</v>
+        <v>1.053901064720951</v>
       </c>
       <c r="J25">
-        <v>1.022891471664508</v>
+        <v>1.038240652956515</v>
       </c>
       <c r="K25">
-        <v>1.029760373557227</v>
+        <v>1.043685797614714</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>0.9846478452084365</v>
+        <v>1.042535168090318</v>
       </c>
       <c r="N25">
-        <v>1.024344094881564</v>
+        <v>1.016354194389865</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042236120878924</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042007989337388</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019517029205777</v>
+        <v>1.018048259668818</v>
       </c>
       <c r="D2">
-        <v>1.035115204183101</v>
+        <v>1.033102127608859</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.034285161362003</v>
+        <v>1.033557357914185</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055505166957062</v>
+        <v>1.054388369953048</v>
       </c>
       <c r="J2">
-        <v>1.04112925758027</v>
+        <v>1.039702232383839</v>
       </c>
       <c r="K2">
-        <v>1.046106080609149</v>
+        <v>1.044118783546293</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.045286652142554</v>
+        <v>1.044568173176349</v>
       </c>
       <c r="N2">
-        <v>1.017338482750096</v>
+        <v>1.017572816097539</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044413727536111</v>
+        <v>1.043845102451292</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043671266292095</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042274810854</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023721804157127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02330878231259</v>
+        <v>1.021624986796809</v>
       </c>
       <c r="D3">
-        <v>1.037660741390642</v>
+        <v>1.035403050359016</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.03706410702502</v>
+        <v>1.036234527802387</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056632504909501</v>
+        <v>1.055369216821557</v>
       </c>
       <c r="J3">
-        <v>1.043183583424321</v>
+        <v>1.041543003361614</v>
       </c>
       <c r="K3">
-        <v>1.047833397551362</v>
+        <v>1.045602128151479</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.047243731729815</v>
+        <v>1.046423858290188</v>
       </c>
       <c r="N3">
-        <v>1.018044824440913</v>
+        <v>1.018069319007198</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045962614823056</v>
+        <v>1.045313744548947</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044889966719712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043320727680178</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024020765196216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025716306556958</v>
+        <v>1.023897443666127</v>
       </c>
       <c r="D4">
-        <v>1.039280367819341</v>
+        <v>1.036868355731765</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.03883620874428</v>
+        <v>1.037942715374404</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057338624115729</v>
+        <v>1.055982797358745</v>
       </c>
       <c r="J4">
-        <v>1.044484302911808</v>
+        <v>1.042708993864303</v>
       </c>
       <c r="K4">
-        <v>1.048926746621229</v>
+        <v>1.046541278737158</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.048487464144072</v>
+        <v>1.047603796324732</v>
       </c>
       <c r="N4">
-        <v>1.018492269942453</v>
+        <v>1.018384097226741</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046946937594842</v>
+        <v>1.046247579614782</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045663936480838</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043985751191832</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02420769705482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026722341074467</v>
+        <v>1.024847078381956</v>
       </c>
       <c r="D5">
-        <v>1.039960221635006</v>
+        <v>1.037483773667005</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.039577299527182</v>
+        <v>1.038657132746309</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057633125193559</v>
+        <v>1.0562386010239</v>
       </c>
       <c r="J5">
-        <v>1.045028942565441</v>
+        <v>1.04319725534047</v>
       </c>
       <c r="K5">
-        <v>1.049386020325834</v>
+        <v>1.046936107857753</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.049007191163763</v>
+        <v>1.048096874900458</v>
       </c>
       <c r="N5">
-        <v>1.01868078602776</v>
+        <v>1.018516694684969</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047358262933462</v>
+        <v>1.046637815064692</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045995789989523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044272753535781</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024286479989576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026896236294257</v>
+        <v>1.025010889475402</v>
       </c>
       <c r="D6">
-        <v>1.040080546691601</v>
+        <v>1.037592755372216</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.039704023877546</v>
+        <v>1.038779101775252</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057686071428314</v>
+        <v>1.056284697769611</v>
       </c>
       <c r="J6">
-        <v>1.045125469934535</v>
+        <v>1.043283709575373</v>
       </c>
       <c r="K6">
-        <v>1.049469281217057</v>
+        <v>1.047008026006616</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.049096764612459</v>
+        <v>1.048181698794146</v>
       </c>
       <c r="N6">
-        <v>1.018715545040645</v>
+        <v>1.018541043470372</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047429153642804</v>
+        <v>1.046704946920895</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04606333567849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044333153446646</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024301724258091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025744862366554</v>
+        <v>1.023933701253168</v>
       </c>
       <c r="D7">
-        <v>1.039307065469487</v>
+        <v>1.036900190390903</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.038853251808299</v>
+        <v>1.037963253779322</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057352839149567</v>
+        <v>1.056000910786603</v>
       </c>
       <c r="J7">
-        <v>1.044506318049455</v>
+        <v>1.042738506909837</v>
       </c>
       <c r="K7">
-        <v>1.048950301109709</v>
+        <v>1.046569903054375</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.048501468133042</v>
+        <v>1.047621253526</v>
       </c>
       <c r="N7">
-        <v>1.018503555970975</v>
+        <v>1.018421166807441</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046958020715112</v>
+        <v>1.04626139570996</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045700543981803</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044027954415738</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024217112493035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020827112570711</v>
+        <v>1.019314048324112</v>
       </c>
       <c r="D8">
-        <v>1.036003167435887</v>
+        <v>1.033927881006858</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.035238735987988</v>
+        <v>1.034489461128436</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055903824493799</v>
+        <v>1.054752465665598</v>
       </c>
       <c r="J8">
-        <v>1.041847943878138</v>
+        <v>1.04037644965758</v>
       </c>
       <c r="K8">
-        <v>1.046716575045461</v>
+        <v>1.044667082183453</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.045961629669431</v>
+        <v>1.045221669747736</v>
       </c>
       <c r="N8">
-        <v>1.017590371957726</v>
+        <v>1.017839072054469</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.0449479239177</v>
+        <v>1.044362298603011</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044125673820032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042687520398504</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023839658954367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011769550400298</v>
+        <v>1.010785285534831</v>
       </c>
       <c r="D9">
-        <v>1.029934629205226</v>
+        <v>1.028454092972913</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.028650660642155</v>
+        <v>1.028151684304903</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I9">
-        <v>1.053150589413688</v>
+        <v>1.052355145946646</v>
       </c>
       <c r="J9">
-        <v>1.036913433188152</v>
+        <v>1.035962852934579</v>
       </c>
       <c r="K9">
-        <v>1.042560014749206</v>
+        <v>1.041101794832162</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.041295394901264</v>
+        <v>1.040803954477839</v>
       </c>
       <c r="N9">
-        <v>1.015890846793634</v>
+        <v>1.016657699730593</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041254925215612</v>
+        <v>1.040865983372696</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041183591015387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040163220936533</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023105742238208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005558093609741</v>
+        <v>1.004983293393869</v>
       </c>
       <c r="D10">
-        <v>1.025808816251988</v>
+        <v>1.024768908558088</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.024338846619094</v>
+        <v>1.024033444888841</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051249707114854</v>
+        <v>1.050720823275629</v>
       </c>
       <c r="J10">
-        <v>1.033552913520108</v>
+        <v>1.033000582083644</v>
       </c>
       <c r="K10">
-        <v>1.039727212361709</v>
+        <v>1.03870490426013</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.038282134252143</v>
+        <v>1.037981915573129</v>
       </c>
       <c r="N10">
-        <v>1.01475410801622</v>
+        <v>1.015992629444715</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038921540727049</v>
+        <v>1.038683952011011</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03919736126165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038486890076708</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022615294423327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003523311512465</v>
+        <v>1.003091318952044</v>
       </c>
       <c r="D11">
-        <v>1.024561588753981</v>
+        <v>1.023663509770632</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.024228350688436</v>
+        <v>1.023992126479793</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050880553383062</v>
+        <v>1.050441379506678</v>
       </c>
       <c r="J11">
-        <v>1.032750247629811</v>
+        <v>1.032336058525639</v>
       </c>
       <c r="K11">
-        <v>1.039034712569822</v>
+        <v>1.038152551222061</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.03870737662129</v>
+        <v>1.038475339295784</v>
       </c>
       <c r="N11">
-        <v>1.014631578505317</v>
+        <v>1.016135889745748</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039693667862296</v>
+        <v>1.039510129138155</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038740416755845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038132255927855</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022574851029778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00296240617732</v>
+        <v>1.0025573127106</v>
       </c>
       <c r="D12">
-        <v>1.024248364115996</v>
+        <v>1.02337549328183</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.02477634781532</v>
+        <v>1.024554252688425</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050876826061881</v>
+        <v>1.050454651644162</v>
       </c>
       <c r="J12">
-        <v>1.032641918669782</v>
+        <v>1.032253835425451</v>
       </c>
       <c r="K12">
-        <v>1.038925295899819</v>
+        <v>1.038068152165039</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.039443783460248</v>
+        <v>1.039225681312544</v>
       </c>
       <c r="N12">
-        <v>1.014698934680647</v>
+        <v>1.016274489218357</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040601929853372</v>
+        <v>1.04042947187856</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038663056361598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038072584776077</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022600529977936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003519907176128</v>
+        <v>1.003038211526275</v>
       </c>
       <c r="D13">
-        <v>1.02465587765515</v>
+        <v>1.023709096490626</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.025897299517806</v>
+        <v>1.025641049413877</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051173083027892</v>
+        <v>1.050705112041339</v>
       </c>
       <c r="J13">
-        <v>1.033083962609401</v>
+        <v>1.032622390169124</v>
       </c>
       <c r="K13">
-        <v>1.039282977552664</v>
+        <v>1.038353182263978</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.040502189176331</v>
+        <v>1.040250517916356</v>
       </c>
       <c r="N13">
-        <v>1.014930406594823</v>
+        <v>1.016392630920993</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041714892026385</v>
+        <v>1.041515940019386</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038913466715641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038271381743861</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022687204280575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004408311950017</v>
+        <v>1.003829336324904</v>
       </c>
       <c r="D14">
-        <v>1.025261875675401</v>
+        <v>1.024221639744146</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.026926302398193</v>
+        <v>1.026625905166732</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051510468163826</v>
+        <v>1.050983960485987</v>
       </c>
       <c r="J14">
-        <v>1.033634236733721</v>
+        <v>1.033079101317888</v>
       </c>
       <c r="K14">
-        <v>1.039738978293258</v>
+        <v>1.038717174236677</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.041374013845033</v>
+        <v>1.041078912020486</v>
       </c>
       <c r="N14">
-        <v>1.015162588216578</v>
+        <v>1.016466504706232</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042577016348675</v>
+        <v>1.042343762804004</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039237288229349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038530284699376</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02277517372243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004884032718356</v>
+        <v>1.004257806800172</v>
       </c>
       <c r="D15">
-        <v>1.025581668322338</v>
+        <v>1.024496046170278</v>
       </c>
       <c r="E15">
         <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.027337704076696</v>
+        <v>1.027015641051217</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051670088542564</v>
+        <v>1.051115022361076</v>
       </c>
       <c r="J15">
-        <v>1.033905164005065</v>
+        <v>1.033304498759393</v>
       </c>
       <c r="K15">
-        <v>1.039967414947319</v>
+        <v>1.03890088341114</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.041692681529701</v>
+        <v>1.041376251469837</v>
       </c>
       <c r="N15">
-        <v>1.015263490775383</v>
+        <v>1.016489421482642</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042866352266703</v>
+        <v>1.042616247071011</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039404638268538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038666581545951</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022815366658195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007408918184915</v>
+        <v>1.006558684114825</v>
       </c>
       <c r="D16">
-        <v>1.027253260325675</v>
+        <v>1.025949409756647</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.02899725533447</v>
+        <v>1.028571117325427</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052436367089854</v>
+        <v>1.051744093979873</v>
       </c>
       <c r="J16">
-        <v>1.035255781207159</v>
+        <v>1.034438517260757</v>
       </c>
       <c r="K16">
-        <v>1.041112000763928</v>
+        <v>1.039830079917266</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.042826775134352</v>
+        <v>1.042407765278096</v>
       </c>
       <c r="N16">
-        <v>1.015705972474768</v>
+        <v>1.016575078521078</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043724105160643</v>
+        <v>1.043392911837264</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040217040827552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039326997210344</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023001903689873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008888488282453</v>
+        <v>1.007926563598248</v>
       </c>
       <c r="D17">
-        <v>1.028225495590075</v>
+        <v>1.026808776550906</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.029731299551858</v>
+        <v>1.029252372359652</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052849299035298</v>
+        <v>1.052086708531085</v>
       </c>
       <c r="J17">
-        <v>1.036009328686054</v>
+        <v>1.035083506966674</v>
       </c>
       <c r="K17">
-        <v>1.041756089760925</v>
+        <v>1.040362530161884</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.043237367730972</v>
+        <v>1.042766231133943</v>
       </c>
       <c r="N17">
-        <v>1.015926727074929</v>
+        <v>1.016632023267008</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043919904333384</v>
+        <v>1.043547472124216</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040675002654924</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039706275058754</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023100490004572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.0095593414486</v>
+        <v>1.008565610962524</v>
       </c>
       <c r="D18">
-        <v>1.028640176706713</v>
+        <v>1.027188177261701</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.029616837426946</v>
+        <v>1.029121362878976</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052960155526098</v>
+        <v>1.052175776152671</v>
       </c>
       <c r="J18">
-        <v>1.036266010013175</v>
+        <v>1.035308880238015</v>
       </c>
       <c r="K18">
-        <v>1.041982201017796</v>
+        <v>1.040553548872117</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.042943205105759</v>
+        <v>1.042455668638053</v>
       </c>
       <c r="N18">
-        <v>1.015948685877153</v>
+        <v>1.016612298987701</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043450236234389</v>
+        <v>1.043064760064643</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040823301313229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039828622352897</v>
+      </c>
+      <c r="S18">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T18">
+        <v>1.023115442091505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0094643645249</v>
+        <v>1.008510074020944</v>
       </c>
       <c r="D19">
-        <v>1.028529264310807</v>
+        <v>1.027113195982329</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.028668452792798</v>
+        <v>1.028188993071723</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052778167046607</v>
+        <v>1.052016068287437</v>
       </c>
       <c r="J19">
-        <v>1.036041960434454</v>
+        <v>1.035122620289921</v>
       </c>
       <c r="K19">
-        <v>1.041811065205217</v>
+        <v>1.040417650406774</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.041948031337038</v>
+        <v>1.041476230148072</v>
       </c>
       <c r="N19">
-        <v>1.015780085269372</v>
+        <v>1.016496730914783</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042338571924069</v>
+        <v>1.041965415713658</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040708661452404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039739523456285</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02304875167984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007210545771049</v>
+        <v>1.006493782213793</v>
       </c>
       <c r="D20">
-        <v>1.026923710374848</v>
+        <v>1.025742388946503</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.025481415448166</v>
+        <v>1.025109473751533</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051774279305881</v>
+        <v>1.051157320155681</v>
       </c>
       <c r="J20">
-        <v>1.034466314991824</v>
+        <v>1.033776654296357</v>
       </c>
       <c r="K20">
-        <v>1.040509102082893</v>
+        <v>1.039347204321374</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.03909052959733</v>
+        <v>1.03872471941805</v>
       </c>
       <c r="N20">
-        <v>1.015074762929315</v>
+        <v>1.016103264638794</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03955075668188</v>
+        <v>1.039261256339433</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03979203595851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038986980204266</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022750820846654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00239403876799</v>
+        <v>1.002151928777363</v>
       </c>
       <c r="D21">
-        <v>1.023709342778379</v>
+        <v>1.022987320520268</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.021902474666468</v>
+        <v>1.021752413876387</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050228964959877</v>
+        <v>1.049901101547286</v>
       </c>
       <c r="J21">
-        <v>1.031792006097728</v>
+        <v>1.031559953446632</v>
       </c>
       <c r="K21">
-        <v>1.038255038533213</v>
+        <v>1.037545896867288</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.036480448680498</v>
+        <v>1.03633307527574</v>
       </c>
       <c r="N21">
-        <v>1.014140633201476</v>
+        <v>1.015934090521462</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03744421200809</v>
+        <v>1.03732757533254</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038201559787193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037716946367901</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022380851201134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9993311716269814</v>
+        <v>0.99938965425197</v>
       </c>
       <c r="D22">
-        <v>1.02166947796323</v>
+        <v>1.02123806723377</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.019722788003685</v>
+        <v>1.019713605720272</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049247905436819</v>
+        <v>1.049102501339851</v>
       </c>
       <c r="J22">
-        <v>1.030100748204873</v>
+        <v>1.03015665926781</v>
       </c>
       <c r="K22">
-        <v>1.036823543472615</v>
+        <v>1.036400216827194</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.03491340279637</v>
+        <v>1.034904393343125</v>
       </c>
       <c r="N22">
-        <v>1.013554343939438</v>
+        <v>1.015824572625834</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036203993890368</v>
+        <v>1.036196863469323</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037175995518738</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036892163745943</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02214550194163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00094667631013</v>
+        <v>1.000830581520813</v>
       </c>
       <c r="D23">
-        <v>1.022738321852485</v>
+        <v>1.022141669424922</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.020874953469066</v>
+        <v>1.020784045052512</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049761408697081</v>
+        <v>1.049511313984265</v>
       </c>
       <c r="J23">
-        <v>1.030987217796</v>
+        <v>1.030876077522228</v>
       </c>
       <c r="K23">
-        <v>1.037569693236804</v>
+        <v>1.036983936286396</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.035740406833219</v>
+        <v>1.035651165325</v>
       </c>
       <c r="N23">
-        <v>1.013857542692064</v>
+        <v>1.015832112618632</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036858515766622</v>
+        <v>1.03678788673363</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03769395645995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037294336386606</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022261208117546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007194900720927</v>
+        <v>1.006486443663299</v>
       </c>
       <c r="D24">
-        <v>1.02689340173596</v>
+        <v>1.025719209067028</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.02534738259902</v>
+        <v>1.024979002227965</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051735642820782</v>
+        <v>1.051123262075182</v>
       </c>
       <c r="J24">
-        <v>1.034418774465371</v>
+        <v>1.033737069483706</v>
       </c>
       <c r="K24">
-        <v>1.040464144238912</v>
+        <v>1.039309234611657</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.03894352626376</v>
+        <v>1.038581212941346</v>
       </c>
       <c r="N24">
-        <v>1.01503846924236</v>
+        <v>1.016076887073874</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039393578421904</v>
+        <v>1.039106831221287</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039732987187807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038930192567762</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022732663068554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01418129901802</v>
+        <v>1.013040072068508</v>
       </c>
       <c r="D25">
-        <v>1.031558400104437</v>
+        <v>1.029907849698012</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.030391001415826</v>
+        <v>1.029817992783654</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053901064720951</v>
+        <v>1.053002721446451</v>
       </c>
       <c r="J25">
-        <v>1.038240652956515</v>
+        <v>1.037136416351369</v>
       </c>
       <c r="K25">
-        <v>1.043685797614714</v>
+        <v>1.042058970721986</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.042535168090318</v>
+        <v>1.041970408094346</v>
       </c>
       <c r="N25">
-        <v>1.016354194389865</v>
+        <v>1.01694397405106</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042236120878924</v>
+        <v>1.041789152143562</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042007989337388</v>
+        <v>1.040871219253893</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023307310781998</v>
       </c>
     </row>
   </sheetData>
